--- a/형태소+분석+결과+예시.xlsx
+++ b/형태소+분석+결과+예시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김철희\Desktop\김철희\12 논문\나의 논문\210630 한국문법교육학회 - 작문 수준에 따른 고등학생의 대등절과 종속절 사용 연구\국어교육용 형태소 분석기 개발 연구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\NanoNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A17D9E-A7CF-4378-A205-83D2EF923911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02D4316-5A12-4F2A-A552-4C2D6B30A247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17990" windowHeight="11020" xr2:uid="{77452D7F-17A7-4317-91DA-161E5CA901E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="8" xr2:uid="{77452D7F-17A7-4317-91DA-161E5CA901E1}"/>
   </bookViews>
   <sheets>
     <sheet name="분석 결과 요약" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet3" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="10" r:id="rId7"/>
     <sheet name="조사" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="696">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2212,6 +2213,25 @@
   </si>
   <si>
     <t>=절 수/문장 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,inputData.morphDic.get_morph_cnt("</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,17</t>
+  </si>
+  <si>
+    <t>,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_ws.cell(</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3519,31 +3539,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D1CD0F-3282-4362-9A92-741ACBEDB15E}">
   <dimension ref="A1:AC753"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.58203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" style="11" customWidth="1"/>
     <col min="15" max="15" width="9" style="11"/>
-    <col min="16" max="16" width="24.58203125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="24.59765625" style="11" customWidth="1"/>
     <col min="17" max="18" width="9" style="6"/>
     <col min="20" max="20" width="4.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="102.08203125" customWidth="1"/>
+    <col min="21" max="21" width="102.09765625" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" customWidth="1"/>
-    <col min="27" max="28" width="4.75" customWidth="1"/>
+    <col min="26" max="26" width="4.796875" customWidth="1"/>
+    <col min="27" max="28" width="4.69921875" customWidth="1"/>
     <col min="29" max="29" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
@@ -3553,7 +3575,7 @@
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="48"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3561,7 +3583,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="49" t="s">
         <v>667</v>
       </c>
@@ -3569,7 +3591,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>226</v>
       </c>
@@ -3616,7 +3638,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>220</v>
       </c>
@@ -3690,7 +3712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>208</v>
       </c>
@@ -3755,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>212</v>
       </c>
@@ -3818,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>209</v>
       </c>
@@ -3883,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>213</v>
       </c>
@@ -3947,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>210</v>
       </c>
@@ -4012,7 +4034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>224</v>
       </c>
@@ -4076,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>211</v>
       </c>
@@ -4142,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>230</v>
       </c>
@@ -4206,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -4266,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -4326,7 +4348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="39" t="s">
         <v>227</v>
       </c>
@@ -4391,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>220</v>
       </c>
@@ -4457,7 +4479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>222</v>
       </c>
@@ -4523,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>223</v>
       </c>
@@ -4587,7 +4609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>218</v>
       </c>
@@ -4651,7 +4673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>219</v>
@@ -4716,7 +4738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:29" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -4777,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="39"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -4839,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="39" t="s">
         <v>228</v>
       </c>
@@ -4904,7 +4926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
         <v>220</v>
       </c>
@@ -4970,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>214</v>
@@ -5035,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>215</v>
       </c>
@@ -5098,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>216</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>217</v>
       </c>
@@ -5224,7 +5246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="66"/>
       <c r="D30"/>
@@ -5283,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -5341,7 +5363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>231</v>
       </c>
@@ -5377,7 +5399,7 @@
       <c r="Q32" s="51"/>
       <c r="R32" s="52"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
         <v>220</v>
       </c>
@@ -5412,7 +5434,7 @@
       <c r="Q33" s="53"/>
       <c r="R33" s="54"/>
     </row>
-    <row r="34" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="34" t="s">
         <v>236</v>
       </c>
@@ -5443,7 +5465,7 @@
       <c r="Q34" s="55"/>
       <c r="R34" s="56"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B35" s="34" t="s">
         <v>237</v>
       </c>
@@ -5476,7 +5498,7 @@
       <c r="Q35" s="57"/>
       <c r="R35" s="58"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B36" s="34" t="s">
         <v>238</v>
       </c>
@@ -5507,7 +5529,7 @@
       <c r="Q36" s="53"/>
       <c r="R36" s="54"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B37" s="34" t="s">
         <v>233</v>
       </c>
@@ -5540,7 +5562,7 @@
       <c r="Q37" s="53"/>
       <c r="R37" s="54"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B38" s="34" t="s">
         <v>234</v>
       </c>
@@ -5573,7 +5595,7 @@
       <c r="Q38" s="53"/>
       <c r="R38" s="54"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>235</v>
       </c>
@@ -5606,7 +5628,7 @@
       <c r="Q39" s="53"/>
       <c r="R39" s="54"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
         <v>239</v>
       </c>
@@ -5637,7 +5659,7 @@
       <c r="Q40" s="53"/>
       <c r="R40" s="54"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>241</v>
       </c>
@@ -5668,7 +5690,7 @@
       <c r="Q41" s="57"/>
       <c r="R41" s="58"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
         <v>240</v>
       </c>
@@ -5701,7 +5723,7 @@
       <c r="Q42" s="53"/>
       <c r="R42" s="54"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>244</v>
       </c>
@@ -5734,7 +5756,7 @@
       <c r="Q43" s="53"/>
       <c r="R43" s="54"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
         <v>242</v>
       </c>
@@ -5767,7 +5789,7 @@
       <c r="Q44" s="53"/>
       <c r="R44" s="54"/>
     </row>
-    <row r="45" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>243</v>
       </c>
@@ -5800,7 +5822,7 @@
       <c r="Q45" s="59"/>
       <c r="R45" s="60"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -5830,7 +5852,7 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="52"/>
     </row>
-    <row r="47" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -5858,7 +5880,7 @@
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>282</v>
       </c>
@@ -5894,7 +5916,7 @@
       <c r="Q48" s="57"/>
       <c r="R48" s="58"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>220</v>
       </c>
@@ -5929,7 +5951,7 @@
       <c r="Q49" s="53"/>
       <c r="R49" s="54"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B50" s="34" t="s">
         <v>236</v>
       </c>
@@ -5960,7 +5982,7 @@
       <c r="Q50" s="53"/>
       <c r="R50" s="54"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B51" s="34" t="s">
         <v>237</v>
       </c>
@@ -5991,7 +6013,7 @@
       <c r="Q51" s="53"/>
       <c r="R51" s="54"/>
     </row>
-    <row r="52" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="34" t="s">
         <v>238</v>
       </c>
@@ -6022,7 +6044,7 @@
       <c r="Q52" s="59"/>
       <c r="R52" s="60"/>
     </row>
-    <row r="53" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="34" t="s">
         <v>233</v>
       </c>
@@ -6057,7 +6079,7 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="63"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B54" s="34" t="s">
         <v>234</v>
       </c>
@@ -6091,7 +6113,7 @@
       <c r="Q54" s="57"/>
       <c r="R54" s="58"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>235</v>
       </c>
@@ -6123,7 +6145,7 @@
       <c r="Q55" s="53"/>
       <c r="R55" s="54"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B56" s="2" t="s">
         <v>239</v>
       </c>
@@ -6152,7 +6174,7 @@
       <c r="Q56" s="53"/>
       <c r="R56" s="54"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>241</v>
       </c>
@@ -6181,7 +6203,7 @@
       <c r="Q57" s="53"/>
       <c r="R57" s="54"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B58" s="2" t="s">
         <v>240</v>
       </c>
@@ -6212,7 +6234,7 @@
       <c r="Q58" s="53"/>
       <c r="R58" s="54"/>
     </row>
-    <row r="59" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="2" t="s">
         <v>244</v>
       </c>
@@ -6243,7 +6265,7 @@
       <c r="Q59" s="59"/>
       <c r="R59" s="60"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B60" s="2" t="s">
         <v>242</v>
       </c>
@@ -6276,7 +6298,7 @@
       <c r="Q60" s="51"/>
       <c r="R60" s="52"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
         <v>243</v>
       </c>
@@ -6307,7 +6329,7 @@
       <c r="Q61" s="53"/>
       <c r="R61" s="54"/>
     </row>
-    <row r="62" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I62" s="14">
         <v>57</v>
       </c>
@@ -6330,7 +6352,7 @@
       <c r="Q62" s="55"/>
       <c r="R62" s="56"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="I63" s="14">
         <v>58</v>
       </c>
@@ -6355,7 +6377,7 @@
       <c r="Q63" s="57"/>
       <c r="R63" s="58"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>283</v>
       </c>
@@ -6387,7 +6409,7 @@
       <c r="Q64" s="53"/>
       <c r="R64" s="54"/>
     </row>
-    <row r="65" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="5" t="s">
         <v>220</v>
       </c>
@@ -6420,7 +6442,7 @@
       <c r="Q65" s="55"/>
       <c r="R65" s="56"/>
     </row>
-    <row r="66" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B66" s="34" t="s">
         <v>236</v>
       </c>
@@ -6447,7 +6469,7 @@
       <c r="Q66" s="65"/>
       <c r="R66" s="63"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B67" s="34" t="s">
         <v>237</v>
       </c>
@@ -6467,7 +6489,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B68" s="34" t="s">
         <v>238</v>
       </c>
@@ -6487,7 +6509,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B69" s="34" t="s">
         <v>233</v>
       </c>
@@ -6509,7 +6531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B70" s="34" t="s">
         <v>234</v>
       </c>
@@ -6531,7 +6553,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B71" s="2" t="s">
         <v>235</v>
       </c>
@@ -6553,7 +6575,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B72" s="2" t="s">
         <v>239</v>
       </c>
@@ -6573,7 +6595,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B73" s="2" t="s">
         <v>241</v>
       </c>
@@ -6593,7 +6615,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B74" s="2" t="s">
         <v>240</v>
       </c>
@@ -6615,7 +6637,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B75" s="2" t="s">
         <v>244</v>
       </c>
@@ -6637,7 +6659,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B76" s="2" t="s">
         <v>242</v>
       </c>
@@ -6659,7 +6681,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B77" s="2" t="s">
         <v>243</v>
       </c>
@@ -6681,7 +6703,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="I78" s="14">
         <v>73</v>
       </c>
@@ -6695,7 +6717,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="I79" s="14">
         <v>74</v>
       </c>
@@ -6709,7 +6731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>685</v>
       </c>
@@ -6729,7 +6751,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -6752,7 +6774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B82" s="2" t="s">
         <v>681</v>
       </c>
@@ -6773,7 +6795,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B83" s="2" t="s">
         <v>682</v>
       </c>
@@ -6794,7 +6816,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B84" s="2" t="s">
         <v>683</v>
       </c>
@@ -6815,7 +6837,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I85" s="14">
         <v>80</v>
       </c>
@@ -6829,7 +6851,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I86" s="14">
         <v>81</v>
       </c>
@@ -6843,7 +6865,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I87" s="14">
         <v>82</v>
       </c>
@@ -6857,7 +6879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I88" s="14">
         <v>83</v>
       </c>
@@ -6871,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I89" s="14">
         <v>84</v>
       </c>
@@ -6885,7 +6907,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I90" s="14">
         <v>85</v>
       </c>
@@ -6899,7 +6921,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I91" s="14">
         <v>86</v>
       </c>
@@ -6913,7 +6935,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I92" s="14">
         <v>87</v>
       </c>
@@ -6927,7 +6949,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I93" s="14">
         <v>88</v>
       </c>
@@ -6941,7 +6963,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I94" s="14">
         <v>89</v>
       </c>
@@ -6955,7 +6977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I95" s="14">
         <v>90</v>
       </c>
@@ -6969,7 +6991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
       <c r="I96" s="14">
         <v>91</v>
       </c>
@@ -6983,7 +7005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I97" s="14">
         <v>92</v>
       </c>
@@ -6997,7 +7019,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I98" s="14">
         <v>93</v>
       </c>
@@ -7011,7 +7033,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I99" s="14">
         <v>94</v>
       </c>
@@ -7025,7 +7047,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I100" s="14">
         <v>95</v>
       </c>
@@ -7039,7 +7061,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I101" s="14">
         <v>96</v>
       </c>
@@ -7053,7 +7075,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I102" s="14">
         <v>97</v>
       </c>
@@ -7067,7 +7089,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="103" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I103" s="14">
         <v>98</v>
       </c>
@@ -7081,7 +7103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I104" s="14">
         <v>99</v>
       </c>
@@ -7095,7 +7117,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="105" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I105" s="14">
         <v>100</v>
       </c>
@@ -7109,7 +7131,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="106" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I106" s="14">
         <v>101</v>
       </c>
@@ -7123,7 +7145,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I107" s="14">
         <v>102</v>
       </c>
@@ -7137,7 +7159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I108" s="14">
         <v>103</v>
       </c>
@@ -7151,7 +7173,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="109" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I109" s="14">
         <v>104</v>
       </c>
@@ -7165,7 +7187,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I110" s="14">
         <v>105</v>
       </c>
@@ -7179,7 +7201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I111" s="14">
         <v>106</v>
       </c>
@@ -7193,7 +7215,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I112" s="14">
         <v>107</v>
       </c>
@@ -7207,7 +7229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I113" s="14">
         <v>108</v>
       </c>
@@ -7221,7 +7243,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I114" s="14">
         <v>109</v>
       </c>
@@ -7235,7 +7257,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I115" s="14">
         <v>110</v>
       </c>
@@ -7249,7 +7271,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I116" s="14">
         <v>111</v>
       </c>
@@ -7263,7 +7285,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="117" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I117" s="14">
         <v>112</v>
       </c>
@@ -7277,7 +7299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I118" s="14">
         <v>113</v>
       </c>
@@ -7291,7 +7313,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I119" s="14">
         <v>114</v>
       </c>
@@ -7305,7 +7327,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I120" s="14">
         <v>115</v>
       </c>
@@ -7319,7 +7341,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I121" s="14">
         <v>116</v>
       </c>
@@ -7333,7 +7355,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I122" s="14">
         <v>117</v>
       </c>
@@ -7347,7 +7369,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I123" s="14">
         <v>118</v>
       </c>
@@ -7361,7 +7383,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I124" s="14">
         <v>119</v>
       </c>
@@ -7375,7 +7397,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I125" s="14">
         <v>120</v>
       </c>
@@ -7389,7 +7411,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="126" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I126" s="14">
         <v>121</v>
       </c>
@@ -7403,7 +7425,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I127" s="14">
         <v>122</v>
       </c>
@@ -7417,7 +7439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I128" s="14">
         <v>123</v>
       </c>
@@ -7431,7 +7453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I129" s="14">
         <v>124</v>
       </c>
@@ -7445,7 +7467,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I130" s="14">
         <v>125</v>
       </c>
@@ -7459,7 +7481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I131" s="14">
         <v>126</v>
       </c>
@@ -7473,7 +7495,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I132" s="14">
         <v>127</v>
       </c>
@@ -7487,7 +7509,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="133" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I133" s="14">
         <v>128</v>
       </c>
@@ -7501,7 +7523,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I134" s="14">
         <v>129</v>
       </c>
@@ -7515,7 +7537,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I135" s="14">
         <v>130</v>
       </c>
@@ -7529,7 +7551,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="136" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I136" s="14">
         <v>131</v>
       </c>
@@ -7543,7 +7565,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I137" s="14">
         <v>132</v>
       </c>
@@ -7557,7 +7579,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I138" s="14">
         <v>133</v>
       </c>
@@ -7571,7 +7593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I139" s="14">
         <v>134</v>
       </c>
@@ -7585,7 +7607,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="140" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I140" s="14">
         <v>135</v>
       </c>
@@ -7599,7 +7621,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="141" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I141" s="14">
         <v>136</v>
       </c>
@@ -7613,7 +7635,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="142" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I142" s="14">
         <v>137</v>
       </c>
@@ -7627,7 +7649,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I143" s="14">
         <v>138</v>
       </c>
@@ -7641,7 +7663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I144" s="14">
         <v>139</v>
       </c>
@@ -7655,7 +7677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I145" s="14">
         <v>140</v>
       </c>
@@ -7669,7 +7691,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="146" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I146" s="14">
         <v>141</v>
       </c>
@@ -7683,7 +7705,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I147" s="14">
         <v>142</v>
       </c>
@@ -7697,7 +7719,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="148" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I148" s="14">
         <v>143</v>
       </c>
@@ -7711,7 +7733,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I149" s="14">
         <v>144</v>
       </c>
@@ -7725,7 +7747,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="150" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I150" s="14">
         <v>145</v>
       </c>
@@ -7739,7 +7761,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="151" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I151" s="14">
         <v>146</v>
       </c>
@@ -7753,7 +7775,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I152" s="14">
         <v>147</v>
       </c>
@@ -7767,7 +7789,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I153" s="14">
         <v>148</v>
       </c>
@@ -7781,7 +7803,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I154" s="14">
         <v>149</v>
       </c>
@@ -7795,7 +7817,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I155" s="14">
         <v>150</v>
       </c>
@@ -7809,7 +7831,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="156" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I156" s="14">
         <v>151</v>
       </c>
@@ -7823,7 +7845,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I157" s="14">
         <v>152</v>
       </c>
@@ -7837,7 +7859,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="158" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I158" s="14">
         <v>153</v>
       </c>
@@ -7851,7 +7873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I159" s="14">
         <v>154</v>
       </c>
@@ -7865,7 +7887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I160" s="14">
         <v>155</v>
       </c>
@@ -7879,7 +7901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I161" s="14">
         <v>156</v>
       </c>
@@ -7893,7 +7915,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="162" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I162" s="14">
         <v>157</v>
       </c>
@@ -7907,7 +7929,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I163" s="14">
         <v>158</v>
       </c>
@@ -7921,7 +7943,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I164" s="14">
         <v>159</v>
       </c>
@@ -7935,7 +7957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="165" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I165" s="14">
         <v>160</v>
       </c>
@@ -7949,7 +7971,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I166" s="14">
         <v>161</v>
       </c>
@@ -7963,7 +7985,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="167" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I167" s="14">
         <v>162</v>
       </c>
@@ -7977,7 +7999,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="168" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I168" s="14">
         <v>163</v>
       </c>
@@ -7991,7 +8013,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="169" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I169" s="14">
         <v>164</v>
       </c>
@@ -8005,7 +8027,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="170" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I170" s="14">
         <v>165</v>
       </c>
@@ -8019,7 +8041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I171" s="14">
         <v>166</v>
       </c>
@@ -8033,7 +8055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I172" s="14">
         <v>167</v>
       </c>
@@ -8047,7 +8069,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="173" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I173" s="14">
         <v>168</v>
       </c>
@@ -8061,7 +8083,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="174" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I174" s="14">
         <v>169</v>
       </c>
@@ -8075,7 +8097,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I175" s="14">
         <v>170</v>
       </c>
@@ -8089,7 +8111,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="176" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I176" s="14">
         <v>171</v>
       </c>
@@ -8103,7 +8125,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="177" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I177" s="14">
         <v>172</v>
       </c>
@@ -8117,7 +8139,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="178" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I178" s="14">
         <v>173</v>
       </c>
@@ -8131,7 +8153,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="179" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I179" s="14">
         <v>174</v>
       </c>
@@ -8145,7 +8167,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="180" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I180" s="14">
         <v>175</v>
       </c>
@@ -8159,7 +8181,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="181" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I181" s="14">
         <v>176</v>
       </c>
@@ -8173,7 +8195,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I182" s="14">
         <v>177</v>
       </c>
@@ -8187,7 +8209,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I183" s="14">
         <v>178</v>
       </c>
@@ -8201,7 +8223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I184" s="14">
         <v>179</v>
       </c>
@@ -8215,7 +8237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I185" s="14">
         <v>180</v>
       </c>
@@ -8229,7 +8251,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I186" s="14">
         <v>181</v>
       </c>
@@ -8243,7 +8265,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="187" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I187" s="14">
         <v>182</v>
       </c>
@@ -8257,7 +8279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I188" s="14">
         <v>183</v>
       </c>
@@ -8271,7 +8293,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="189" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I189" s="14">
         <v>184</v>
       </c>
@@ -8285,7 +8307,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="190" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I190" s="14">
         <v>185</v>
       </c>
@@ -8299,7 +8321,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I191" s="14">
         <v>186</v>
       </c>
@@ -8313,7 +8335,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I192" s="14">
         <v>187</v>
       </c>
@@ -8327,7 +8349,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I193" s="14">
         <v>188</v>
       </c>
@@ -8341,7 +8363,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I194" s="14">
         <v>189</v>
       </c>
@@ -8355,7 +8377,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="195" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I195" s="14">
         <v>190</v>
       </c>
@@ -8369,7 +8391,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I196" s="14">
         <v>191</v>
       </c>
@@ -8383,7 +8405,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I197" s="14">
         <v>192</v>
       </c>
@@ -8397,7 +8419,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I198" s="14">
         <v>193</v>
       </c>
@@ -8411,7 +8433,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I199" s="14">
         <v>194</v>
       </c>
@@ -8425,7 +8447,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I200" s="14">
         <v>195</v>
       </c>
@@ -8439,7 +8461,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="201" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I201" s="14">
         <v>196</v>
       </c>
@@ -8453,7 +8475,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="202" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I202" s="14">
         <v>197</v>
       </c>
@@ -8467,7 +8489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I203" s="14">
         <v>198</v>
       </c>
@@ -8481,7 +8503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I204" s="14">
         <v>199</v>
       </c>
@@ -8495,7 +8517,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I205" s="14">
         <v>200</v>
       </c>
@@ -8509,7 +8531,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="206" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I206" s="14">
         <v>201</v>
       </c>
@@ -8523,7 +8545,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="207" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I207" s="14">
         <v>202</v>
       </c>
@@ -8537,7 +8559,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="208" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I208" s="14">
         <v>203</v>
       </c>
@@ -8551,7 +8573,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="209" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I209" s="14">
         <v>204</v>
       </c>
@@ -8565,7 +8587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I210" s="14">
         <v>205</v>
       </c>
@@ -8579,7 +8601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I211" s="14">
         <v>206</v>
       </c>
@@ -8593,7 +8615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="212" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I212" s="14">
         <v>207</v>
       </c>
@@ -8607,7 +8629,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="213" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I213" s="14">
         <v>208</v>
       </c>
@@ -8621,7 +8643,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I214" s="14">
         <v>209</v>
       </c>
@@ -8635,7 +8657,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="215" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I215" s="14">
         <v>210</v>
       </c>
@@ -8649,7 +8671,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I216" s="14">
         <v>211</v>
       </c>
@@ -8663,7 +8685,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="217" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I217" s="14">
         <v>212</v>
       </c>
@@ -8677,7 +8699,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="218" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I218" s="14">
         <v>213</v>
       </c>
@@ -8691,7 +8713,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="219" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I219" s="14">
         <v>214</v>
       </c>
@@ -8705,7 +8727,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="220" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I220" s="14">
         <v>215</v>
       </c>
@@ -8719,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I221" s="14">
         <v>216</v>
       </c>
@@ -8733,7 +8755,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="222" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I222" s="14">
         <v>217</v>
       </c>
@@ -8747,7 +8769,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="223" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I223" s="14">
         <v>218</v>
       </c>
@@ -8761,7 +8783,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="224" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I224" s="14">
         <v>219</v>
       </c>
@@ -8775,7 +8797,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="225" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I225" s="14">
         <v>220</v>
       </c>
@@ -8789,7 +8811,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="226" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I226" s="14">
         <v>221</v>
       </c>
@@ -8803,7 +8825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I227" s="14">
         <v>222</v>
       </c>
@@ -8817,7 +8839,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="228" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I228" s="14">
         <v>223</v>
       </c>
@@ -8831,7 +8853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I229" s="14">
         <v>224</v>
       </c>
@@ -8845,7 +8867,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="230" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I230" s="14">
         <v>225</v>
       </c>
@@ -8859,7 +8881,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="231" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I231" s="14">
         <v>226</v>
       </c>
@@ -8873,7 +8895,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="232" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I232" s="14">
         <v>227</v>
       </c>
@@ -8887,7 +8909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I233" s="14">
         <v>228</v>
       </c>
@@ -8901,7 +8923,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="234" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I234" s="14">
         <v>229</v>
       </c>
@@ -8915,7 +8937,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="235" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I235" s="14">
         <v>230</v>
       </c>
@@ -8929,7 +8951,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="236" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I236" s="14">
         <v>231</v>
       </c>
@@ -8943,7 +8965,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="237" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I237" s="14">
         <v>232</v>
       </c>
@@ -8957,7 +8979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I238" s="14">
         <v>233</v>
       </c>
@@ -8971,7 +8993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I239" s="14">
         <v>234</v>
       </c>
@@ -8985,7 +9007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I240" s="14">
         <v>235</v>
       </c>
@@ -8999,7 +9021,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="241" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I241" s="14">
         <v>236</v>
       </c>
@@ -9013,7 +9035,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="242" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I242" s="14">
         <v>237</v>
       </c>
@@ -9027,7 +9049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I243" s="14">
         <v>238</v>
       </c>
@@ -9041,7 +9063,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="244" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I244" s="14">
         <v>239</v>
       </c>
@@ -9055,7 +9077,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="245" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I245" s="14">
         <v>240</v>
       </c>
@@ -9069,7 +9091,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="246" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I246" s="14">
         <v>241</v>
       </c>
@@ -9083,7 +9105,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="247" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I247" s="14">
         <v>242</v>
       </c>
@@ -9097,7 +9119,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="248" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I248" s="14">
         <v>243</v>
       </c>
@@ -9111,7 +9133,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="249" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I249" s="14">
         <v>244</v>
       </c>
@@ -9125,7 +9147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I250" s="14">
         <v>245</v>
       </c>
@@ -9139,7 +9161,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="251" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I251" s="14">
         <v>246</v>
       </c>
@@ -9153,7 +9175,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="252" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I252" s="14">
         <v>247</v>
       </c>
@@ -9167,7 +9189,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="253" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I253" s="14">
         <v>248</v>
       </c>
@@ -9181,7 +9203,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="254" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I254" s="14">
         <v>249</v>
       </c>
@@ -9195,7 +9217,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I255" s="14">
         <v>250</v>
       </c>
@@ -9209,7 +9231,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="256" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I256" s="14">
         <v>251</v>
       </c>
@@ -9223,7 +9245,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I257" s="14">
         <v>252</v>
       </c>
@@ -9237,7 +9259,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="258" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I258" s="14">
         <v>253</v>
       </c>
@@ -9251,7 +9273,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I259" s="14">
         <v>254</v>
       </c>
@@ -9265,7 +9287,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="260" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I260" s="14">
         <v>255</v>
       </c>
@@ -9279,7 +9301,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I261" s="14">
         <v>256</v>
       </c>
@@ -9293,7 +9315,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="262" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I262" s="14">
         <v>257</v>
       </c>
@@ -9307,7 +9329,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="263" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I263" s="14">
         <v>258</v>
       </c>
@@ -9321,7 +9343,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="264" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I264" s="14">
         <v>259</v>
       </c>
@@ -9335,7 +9357,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="265" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I265" s="14">
         <v>260</v>
       </c>
@@ -9349,7 +9371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="266" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I266" s="14">
         <v>261</v>
       </c>
@@ -9363,7 +9385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="267" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I267" s="14">
         <v>262</v>
       </c>
@@ -9377,7 +9399,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="268" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="268" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I268" s="14">
         <v>263</v>
       </c>
@@ -9391,7 +9413,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="269" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I269" s="14">
         <v>264</v>
       </c>
@@ -9405,7 +9427,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="270" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="270" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I270" s="14">
         <v>265</v>
       </c>
@@ -9419,7 +9441,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="271" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="271" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I271" s="14">
         <v>266</v>
       </c>
@@ -9433,7 +9455,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="272" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="272" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I272" s="14">
         <v>267</v>
       </c>
@@ -9447,7 +9469,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="273" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="273" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I273" s="14">
         <v>268</v>
       </c>
@@ -9461,7 +9483,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="274" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="274" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I274" s="14">
         <v>269</v>
       </c>
@@ -9475,7 +9497,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="275" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="275" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I275" s="14">
         <v>270</v>
       </c>
@@ -9489,7 +9511,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="276" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="276" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I276" s="14">
         <v>271</v>
       </c>
@@ -9503,7 +9525,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="277" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="277" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I277" s="14">
         <v>272</v>
       </c>
@@ -9517,7 +9539,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="278" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="278" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I278" s="14">
         <v>273</v>
       </c>
@@ -9531,7 +9553,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="279" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I279" s="14">
         <v>274</v>
       </c>
@@ -9545,7 +9567,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="280" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="280" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I280" s="14">
         <v>275</v>
       </c>
@@ -9559,7 +9581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="281" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="281" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I281" s="14">
         <v>276</v>
       </c>
@@ -9573,7 +9595,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="282" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="282" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I282" s="14">
         <v>277</v>
       </c>
@@ -9587,7 +9609,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="283" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="283" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I283" s="14">
         <v>278</v>
       </c>
@@ -9601,7 +9623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="284" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I284" s="14">
         <v>279</v>
       </c>
@@ -9615,7 +9637,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="285" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="285" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I285" s="14">
         <v>280</v>
       </c>
@@ -9629,7 +9651,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="286" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="286" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I286" s="14">
         <v>281</v>
       </c>
@@ -9643,7 +9665,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="287" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="287" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I287" s="14">
         <v>282</v>
       </c>
@@ -9657,7 +9679,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="288" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="288" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I288" s="14">
         <v>283</v>
       </c>
@@ -9671,7 +9693,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="289" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="289" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I289" s="14">
         <v>284</v>
       </c>
@@ -9685,7 +9707,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="290" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="290" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I290" s="14">
         <v>285</v>
       </c>
@@ -9699,7 +9721,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="291" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="291" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I291" s="14">
         <v>286</v>
       </c>
@@ -9713,7 +9735,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="292" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="292" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I292" s="14">
         <v>287</v>
       </c>
@@ -9727,7 +9749,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="293" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="293" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I293" s="14">
         <v>288</v>
       </c>
@@ -9741,7 +9763,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="294" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="294" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I294" s="14">
         <v>289</v>
       </c>
@@ -9755,7 +9777,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="295" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I295" s="14">
         <v>290</v>
       </c>
@@ -9769,7 +9791,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="296" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="296" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I296" s="14">
         <v>291</v>
       </c>
@@ -9783,7 +9805,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="297" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I297" s="14">
         <v>292</v>
       </c>
@@ -9797,7 +9819,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="298" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I298" s="14">
         <v>293</v>
       </c>
@@ -9811,7 +9833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="299" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I299" s="14">
         <v>294</v>
       </c>
@@ -9825,7 +9847,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="300" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="300" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I300" s="14">
         <v>295</v>
       </c>
@@ -9839,7 +9861,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="301" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="301" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I301" s="14">
         <v>296</v>
       </c>
@@ -9853,7 +9875,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="302" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="302" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I302" s="14">
         <v>297</v>
       </c>
@@ -9867,7 +9889,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="303" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="303" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I303" s="14">
         <v>298</v>
       </c>
@@ -9881,7 +9903,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="304" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="304" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I304" s="14">
         <v>299</v>
       </c>
@@ -9895,7 +9917,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="305" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="305" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I305" s="14">
         <v>300</v>
       </c>
@@ -9909,7 +9931,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="306" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="306" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I306" s="14">
         <v>301</v>
       </c>
@@ -9923,7 +9945,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="307" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="307" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I307" s="14">
         <v>302</v>
       </c>
@@ -9937,7 +9959,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="308" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="308" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I308" s="14">
         <v>303</v>
       </c>
@@ -9951,7 +9973,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="309" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="309" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I309" s="14">
         <v>304</v>
       </c>
@@ -9965,7 +9987,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="310" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="310" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I310" s="14">
         <v>305</v>
       </c>
@@ -9979,7 +10001,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="311" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="311" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I311" s="14">
         <v>306</v>
       </c>
@@ -9993,7 +10015,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="312" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I312" s="14">
         <v>307</v>
       </c>
@@ -10007,7 +10029,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="313" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="313" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I313" s="14">
         <v>308</v>
       </c>
@@ -10021,7 +10043,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="314" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="314" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I314" s="14">
         <v>309</v>
       </c>
@@ -10035,7 +10057,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="315" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="315" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I315" s="14">
         <v>310</v>
       </c>
@@ -10049,7 +10071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="316" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I316" s="14">
         <v>311</v>
       </c>
@@ -10063,7 +10085,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="317" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="317" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I317" s="14">
         <v>312</v>
       </c>
@@ -10077,7 +10099,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="318" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="318" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I318" s="14">
         <v>313</v>
       </c>
@@ -10091,7 +10113,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="319" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I319" s="14">
         <v>314</v>
       </c>
@@ -10105,7 +10127,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="320" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="320" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I320" s="14">
         <v>315</v>
       </c>
@@ -10119,7 +10141,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="321" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="321" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I321" s="14">
         <v>316</v>
       </c>
@@ -10133,7 +10155,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="322" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="322" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I322" s="14">
         <v>317</v>
       </c>
@@ -10147,7 +10169,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="323" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="323" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I323" s="14">
         <v>318</v>
       </c>
@@ -10161,7 +10183,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="324" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="324" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I324" s="14">
         <v>319</v>
       </c>
@@ -10175,7 +10197,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="325" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="325" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I325" s="14">
         <v>320</v>
       </c>
@@ -10189,7 +10211,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="326" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="326" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I326" s="14">
         <v>321</v>
       </c>
@@ -10203,7 +10225,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="327" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="327" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I327" s="14">
         <v>322</v>
       </c>
@@ -10217,7 +10239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="328" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I328" s="14">
         <v>323</v>
       </c>
@@ -10231,7 +10253,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="329" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="329" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I329" s="14">
         <v>324</v>
       </c>
@@ -10245,7 +10267,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="330" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="330" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I330" s="14">
         <v>325</v>
       </c>
@@ -10259,7 +10281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="331" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I331" s="14">
         <v>326</v>
       </c>
@@ -10273,7 +10295,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="332" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="332" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I332" s="14">
         <v>327</v>
       </c>
@@ -10287,7 +10309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="333" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I333" s="14">
         <v>328</v>
       </c>
@@ -10301,7 +10323,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="334" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="334" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I334" s="14">
         <v>329</v>
       </c>
@@ -10315,7 +10337,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="335" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="335" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I335" s="14">
         <v>330</v>
       </c>
@@ -10329,7 +10351,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="336" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I336" s="14">
         <v>331</v>
       </c>
@@ -10343,7 +10365,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="337" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="337" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I337" s="14">
         <v>332</v>
       </c>
@@ -10357,7 +10379,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="338" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="338" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I338" s="14">
         <v>333</v>
       </c>
@@ -10371,7 +10393,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="339" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="339" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I339" s="14">
         <v>334</v>
       </c>
@@ -10385,7 +10407,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="340" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="340" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I340" s="14">
         <v>335</v>
       </c>
@@ -10399,7 +10421,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="341" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="341" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I341" s="14">
         <v>336</v>
       </c>
@@ -10413,7 +10435,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="342" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="342" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I342" s="14">
         <v>337</v>
       </c>
@@ -10427,7 +10449,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="343" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="343" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I343" s="14">
         <v>338</v>
       </c>
@@ -10441,7 +10463,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="344" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="344" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I344" s="14">
         <v>339</v>
       </c>
@@ -10455,7 +10477,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="345" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="345" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I345" s="14">
         <v>340</v>
       </c>
@@ -10469,7 +10491,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="346" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I346" s="14">
         <v>341</v>
       </c>
@@ -10483,7 +10505,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="347" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="347" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I347" s="14">
         <v>342</v>
       </c>
@@ -10497,7 +10519,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="348" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="348" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I348" s="14">
         <v>343</v>
       </c>
@@ -10511,7 +10533,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="349" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="349" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I349" s="14">
         <v>344</v>
       </c>
@@ -10525,7 +10547,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="350" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="350" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I350" s="14">
         <v>345</v>
       </c>
@@ -10539,7 +10561,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="351" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="351" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I351" s="14">
         <v>346</v>
       </c>
@@ -10553,7 +10575,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="352" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="352" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I352" s="14">
         <v>347</v>
       </c>
@@ -10567,7 +10589,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="353" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="353" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I353" s="14">
         <v>348</v>
       </c>
@@ -10581,7 +10603,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="354" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="354" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I354" s="14">
         <v>349</v>
       </c>
@@ -10595,7 +10617,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="355" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="355" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I355" s="14">
         <v>350</v>
       </c>
@@ -10609,7 +10631,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="356" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="356" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I356" s="14">
         <v>351</v>
       </c>
@@ -10623,7 +10645,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="357" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="357" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I357" s="14">
         <v>352</v>
       </c>
@@ -10637,7 +10659,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="358" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="358" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I358" s="14">
         <v>353</v>
       </c>
@@ -10651,7 +10673,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="359" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="359" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I359" s="14">
         <v>354</v>
       </c>
@@ -10665,7 +10687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="360" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I360" s="14">
         <v>355</v>
       </c>
@@ -10679,7 +10701,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="361" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I361" s="14">
         <v>356</v>
       </c>
@@ -10693,7 +10715,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="362" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="362" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I362" s="14">
         <v>357</v>
       </c>
@@ -10707,7 +10729,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="363" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="363" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I363" s="14">
         <v>358</v>
       </c>
@@ -10721,7 +10743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="364" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I364" s="14">
         <v>359</v>
       </c>
@@ -10735,7 +10757,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="365" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="365" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I365" s="14">
         <v>360</v>
       </c>
@@ -10749,7 +10771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="366" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I366" s="14">
         <v>361</v>
       </c>
@@ -10763,7 +10785,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="367" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="367" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I367" s="14">
         <v>362</v>
       </c>
@@ -10777,7 +10799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="368" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I368" s="14">
         <v>363</v>
       </c>
@@ -10791,7 +10813,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="369" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="369" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I369" s="14">
         <v>364</v>
       </c>
@@ -10805,7 +10827,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="370" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="370" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I370" s="14">
         <v>365</v>
       </c>
@@ -10819,7 +10841,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="371" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="371" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I371" s="14">
         <v>366</v>
       </c>
@@ -10833,7 +10855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="372" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I372" s="14">
         <v>367</v>
       </c>
@@ -10847,7 +10869,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="373" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="373" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I373" s="14">
         <v>368</v>
       </c>
@@ -10861,7 +10883,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="374" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="374" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I374" s="14">
         <v>369</v>
       </c>
@@ -10875,7 +10897,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="375" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="375" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I375" s="14">
         <v>370</v>
       </c>
@@ -10889,7 +10911,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="376" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="376" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I376" s="14">
         <v>371</v>
       </c>
@@ -10903,7 +10925,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="377" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="377" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I377" s="14">
         <v>372</v>
       </c>
@@ -10917,7 +10939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="378" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I378" s="14">
         <v>373</v>
       </c>
@@ -10931,7 +10953,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="379" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="379" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I379" s="14">
         <v>374</v>
       </c>
@@ -10945,7 +10967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="380" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I380" s="14">
         <v>375</v>
       </c>
@@ -10959,7 +10981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="381" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="381" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I381" s="14">
         <v>376</v>
       </c>
@@ -10973,7 +10995,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="382" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="382" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I382" s="14">
         <v>377</v>
       </c>
@@ -10987,7 +11009,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="383" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="383" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I383" s="14">
         <v>378</v>
       </c>
@@ -11001,7 +11023,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="384" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="384" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I384" s="14">
         <v>379</v>
       </c>
@@ -11015,7 +11037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="385" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I385" s="14">
         <v>380</v>
       </c>
@@ -11029,7 +11051,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="386" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="386" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I386" s="14">
         <v>381</v>
       </c>
@@ -11043,7 +11065,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="387" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="387" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I387" s="14">
         <v>382</v>
       </c>
@@ -11057,7 +11079,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="388" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="388" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I388" s="14">
         <v>383</v>
       </c>
@@ -11071,7 +11093,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="389" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="389" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I389" s="14">
         <v>384</v>
       </c>
@@ -11085,7 +11107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="390" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="390" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I390" s="14">
         <v>385</v>
       </c>
@@ -11099,7 +11121,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="391" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="391" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I391" s="14">
         <v>386</v>
       </c>
@@ -11113,7 +11135,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="392" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I392" s="14">
         <v>387</v>
       </c>
@@ -11127,7 +11149,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="393" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="393" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I393" s="14">
         <v>388</v>
       </c>
@@ -11141,7 +11163,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="394" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="394" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I394" s="14">
         <v>389</v>
       </c>
@@ -11155,7 +11177,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="395" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="395" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I395" s="14">
         <v>390</v>
       </c>
@@ -11169,7 +11191,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="396" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="396" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I396" s="14">
         <v>391</v>
       </c>
@@ -11183,7 +11205,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="397" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="397" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I397" s="14">
         <v>392</v>
       </c>
@@ -11197,7 +11219,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="398" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="398" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I398" s="14">
         <v>393</v>
       </c>
@@ -11211,7 +11233,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="399" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="399" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I399" s="14">
         <v>394</v>
       </c>
@@ -11225,7 +11247,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="400" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="400" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I400" s="14">
         <v>395</v>
       </c>
@@ -11239,7 +11261,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="401" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="401" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I401" s="14">
         <v>396</v>
       </c>
@@ -11253,7 +11275,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="402" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="402" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I402" s="14">
         <v>397</v>
       </c>
@@ -11267,7 +11289,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="403" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="403" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I403" s="14">
         <v>398</v>
       </c>
@@ -11281,7 +11303,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="404" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="404" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I404" s="14">
         <v>399</v>
       </c>
@@ -11295,7 +11317,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="405" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="405" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I405" s="14">
         <v>400</v>
       </c>
@@ -11309,7 +11331,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="406" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="406" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I406" s="14">
         <v>401</v>
       </c>
@@ -11323,7 +11345,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="407" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="407" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I407" s="14">
         <v>402</v>
       </c>
@@ -11337,7 +11359,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="408" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="408" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I408" s="14">
         <v>403</v>
       </c>
@@ -11351,7 +11373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="409" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="409" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I409" s="14">
         <v>404</v>
       </c>
@@ -11365,7 +11387,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="410" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="410" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I410" s="14">
         <v>405</v>
       </c>
@@ -11379,7 +11401,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="411" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="411" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I411" s="14">
         <v>406</v>
       </c>
@@ -11393,7 +11415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="412" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I412" s="14">
         <v>407</v>
       </c>
@@ -11405,7 +11427,7 @@
       </c>
       <c r="L412" s="14"/>
     </row>
-    <row r="413" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="413" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I413" s="14">
         <v>408</v>
       </c>
@@ -11417,7 +11439,7 @@
       </c>
       <c r="L413" s="14"/>
     </row>
-    <row r="414" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="414" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I414" s="14">
         <v>409</v>
       </c>
@@ -11429,7 +11451,7 @@
       </c>
       <c r="L414" s="14"/>
     </row>
-    <row r="415" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="415" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I415" s="14">
         <v>410</v>
       </c>
@@ -11441,7 +11463,7 @@
       </c>
       <c r="L415" s="14"/>
     </row>
-    <row r="416" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="416" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I416" s="14">
         <v>411</v>
       </c>
@@ -11453,7 +11475,7 @@
       </c>
       <c r="L416" s="14"/>
     </row>
-    <row r="417" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="417" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I417" s="14">
         <v>412</v>
       </c>
@@ -11465,7 +11487,7 @@
       </c>
       <c r="L417" s="14"/>
     </row>
-    <row r="418" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="418" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I418" s="14">
         <v>413</v>
       </c>
@@ -11477,7 +11499,7 @@
       </c>
       <c r="L418" s="14"/>
     </row>
-    <row r="419" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="419" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I419" s="14">
         <v>414</v>
       </c>
@@ -11489,7 +11511,7 @@
       </c>
       <c r="L419" s="14"/>
     </row>
-    <row r="420" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="420" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I420" s="14">
         <v>415</v>
       </c>
@@ -11501,7 +11523,7 @@
       </c>
       <c r="L420" s="14"/>
     </row>
-    <row r="421" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="421" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I421" s="14">
         <v>416</v>
       </c>
@@ -11513,7 +11535,7 @@
       </c>
       <c r="L421" s="14"/>
     </row>
-    <row r="422" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="422" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I422" s="14">
         <v>417</v>
       </c>
@@ -11525,7 +11547,7 @@
       </c>
       <c r="L422" s="14"/>
     </row>
-    <row r="423" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="423" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I423" s="14">
         <v>418</v>
       </c>
@@ -11537,7 +11559,7 @@
       </c>
       <c r="L423" s="14"/>
     </row>
-    <row r="424" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="424" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I424" s="14">
         <v>419</v>
       </c>
@@ -11549,7 +11571,7 @@
       </c>
       <c r="L424" s="14"/>
     </row>
-    <row r="425" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="425" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I425" s="14">
         <v>420</v>
       </c>
@@ -11561,7 +11583,7 @@
       </c>
       <c r="L425" s="14"/>
     </row>
-    <row r="426" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="426" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I426" s="14">
         <v>421</v>
       </c>
@@ -11573,7 +11595,7 @@
       </c>
       <c r="L426" s="14"/>
     </row>
-    <row r="427" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="427" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I427" s="14">
         <v>422</v>
       </c>
@@ -11585,7 +11607,7 @@
       </c>
       <c r="L427" s="14"/>
     </row>
-    <row r="428" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="428" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I428" s="14">
         <v>423</v>
       </c>
@@ -11597,7 +11619,7 @@
       </c>
       <c r="L428" s="14"/>
     </row>
-    <row r="429" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="429" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I429" s="14">
         <v>424</v>
       </c>
@@ -11609,7 +11631,7 @@
       </c>
       <c r="L429" s="14"/>
     </row>
-    <row r="430" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="430" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I430" s="14">
         <v>425</v>
       </c>
@@ -11621,7 +11643,7 @@
       </c>
       <c r="L430" s="14"/>
     </row>
-    <row r="431" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="431" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I431" s="14">
         <v>426</v>
       </c>
@@ -11633,7 +11655,7 @@
       </c>
       <c r="L431" s="14"/>
     </row>
-    <row r="432" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="432" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I432" s="14">
         <v>427</v>
       </c>
@@ -11645,7 +11667,7 @@
       </c>
       <c r="L432" s="14"/>
     </row>
-    <row r="433" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="433" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I433" s="14">
         <v>428</v>
       </c>
@@ -11657,7 +11679,7 @@
       </c>
       <c r="L433" s="14"/>
     </row>
-    <row r="434" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="434" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I434" s="14">
         <v>429</v>
       </c>
@@ -11669,7 +11691,7 @@
       </c>
       <c r="L434" s="14"/>
     </row>
-    <row r="435" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="435" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I435" s="14">
         <v>430</v>
       </c>
@@ -11681,7 +11703,7 @@
       </c>
       <c r="L435" s="14"/>
     </row>
-    <row r="436" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="436" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I436" s="14">
         <v>431</v>
       </c>
@@ -11693,7 +11715,7 @@
       </c>
       <c r="L436" s="14"/>
     </row>
-    <row r="437" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="437" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I437" s="14">
         <v>432</v>
       </c>
@@ -11705,7 +11727,7 @@
       </c>
       <c r="L437" s="14"/>
     </row>
-    <row r="438" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="438" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I438" s="14">
         <v>433</v>
       </c>
@@ -11717,7 +11739,7 @@
       </c>
       <c r="L438" s="14"/>
     </row>
-    <row r="439" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="439" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I439" s="14">
         <v>434</v>
       </c>
@@ -11729,7 +11751,7 @@
       </c>
       <c r="L439" s="14"/>
     </row>
-    <row r="440" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="440" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I440" s="14">
         <v>435</v>
       </c>
@@ -11741,7 +11763,7 @@
       </c>
       <c r="L440" s="14"/>
     </row>
-    <row r="441" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="441" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I441" s="14">
         <v>436</v>
       </c>
@@ -11753,7 +11775,7 @@
       </c>
       <c r="L441" s="14"/>
     </row>
-    <row r="442" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="442" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I442" s="14">
         <v>437</v>
       </c>
@@ -11765,7 +11787,7 @@
       </c>
       <c r="L442" s="14"/>
     </row>
-    <row r="443" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="443" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I443" s="14">
         <v>438</v>
       </c>
@@ -11777,7 +11799,7 @@
       </c>
       <c r="L443" s="14"/>
     </row>
-    <row r="444" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="444" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I444" s="14">
         <v>439</v>
       </c>
@@ -11789,7 +11811,7 @@
       </c>
       <c r="L444" s="14"/>
     </row>
-    <row r="445" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="445" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I445" s="14">
         <v>440</v>
       </c>
@@ -11801,7 +11823,7 @@
       </c>
       <c r="L445" s="14"/>
     </row>
-    <row r="446" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="446" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I446" s="14">
         <v>441</v>
       </c>
@@ -11813,7 +11835,7 @@
       </c>
       <c r="L446" s="14"/>
     </row>
-    <row r="447" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="447" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I447" s="14">
         <v>442</v>
       </c>
@@ -11825,7 +11847,7 @@
       </c>
       <c r="L447" s="14"/>
     </row>
-    <row r="448" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="448" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I448" s="14">
         <v>443</v>
       </c>
@@ -11837,7 +11859,7 @@
       </c>
       <c r="L448" s="14"/>
     </row>
-    <row r="449" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="449" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I449" s="14">
         <v>444</v>
       </c>
@@ -11849,7 +11871,7 @@
       </c>
       <c r="L449" s="14"/>
     </row>
-    <row r="450" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="450" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I450" s="14">
         <v>445</v>
       </c>
@@ -11861,7 +11883,7 @@
       </c>
       <c r="L450" s="14"/>
     </row>
-    <row r="451" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="451" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I451" s="14">
         <v>446</v>
       </c>
@@ -11873,7 +11895,7 @@
       </c>
       <c r="L451" s="14"/>
     </row>
-    <row r="452" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="452" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I452" s="14">
         <v>447</v>
       </c>
@@ -11885,7 +11907,7 @@
       </c>
       <c r="L452" s="14"/>
     </row>
-    <row r="453" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="453" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I453" s="14">
         <v>448</v>
       </c>
@@ -11897,7 +11919,7 @@
       </c>
       <c r="L453" s="14"/>
     </row>
-    <row r="454" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="454" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I454" s="14">
         <v>449</v>
       </c>
@@ -11909,7 +11931,7 @@
       </c>
       <c r="L454" s="14"/>
     </row>
-    <row r="455" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="455" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I455" s="14">
         <v>450</v>
       </c>
@@ -11921,7 +11943,7 @@
       </c>
       <c r="L455" s="14"/>
     </row>
-    <row r="456" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="456" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I456" s="14">
         <v>451</v>
       </c>
@@ -11933,7 +11955,7 @@
       </c>
       <c r="L456" s="14"/>
     </row>
-    <row r="457" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="457" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I457" s="14">
         <v>452</v>
       </c>
@@ -11945,7 +11967,7 @@
       </c>
       <c r="L457" s="14"/>
     </row>
-    <row r="458" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="458" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I458" s="14">
         <v>453</v>
       </c>
@@ -11957,7 +11979,7 @@
       </c>
       <c r="L458" s="14"/>
     </row>
-    <row r="459" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="459" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I459" s="14">
         <v>454</v>
       </c>
@@ -11969,7 +11991,7 @@
       </c>
       <c r="L459" s="14"/>
     </row>
-    <row r="460" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="460" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I460" s="14">
         <v>455</v>
       </c>
@@ -11981,7 +12003,7 @@
       </c>
       <c r="L460" s="14"/>
     </row>
-    <row r="461" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="461" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I461" s="14">
         <v>456</v>
       </c>
@@ -11993,7 +12015,7 @@
       </c>
       <c r="L461" s="14"/>
     </row>
-    <row r="462" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="462" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I462" s="14">
         <v>457</v>
       </c>
@@ -12005,7 +12027,7 @@
       </c>
       <c r="L462" s="14"/>
     </row>
-    <row r="463" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="463" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I463" s="14">
         <v>458</v>
       </c>
@@ -12017,7 +12039,7 @@
       </c>
       <c r="L463" s="14"/>
     </row>
-    <row r="464" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="464" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I464" s="14">
         <v>459</v>
       </c>
@@ -12029,7 +12051,7 @@
       </c>
       <c r="L464" s="14"/>
     </row>
-    <row r="465" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="465" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I465" s="14">
         <v>460</v>
       </c>
@@ -12041,7 +12063,7 @@
       </c>
       <c r="L465" s="14"/>
     </row>
-    <row r="466" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="466" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I466" s="14">
         <v>461</v>
       </c>
@@ -12053,7 +12075,7 @@
       </c>
       <c r="L466" s="14"/>
     </row>
-    <row r="467" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="467" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I467" s="14">
         <v>462</v>
       </c>
@@ -12065,7 +12087,7 @@
       </c>
       <c r="L467" s="14"/>
     </row>
-    <row r="468" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="468" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I468" s="14">
         <v>463</v>
       </c>
@@ -12077,7 +12099,7 @@
       </c>
       <c r="L468" s="14"/>
     </row>
-    <row r="469" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="469" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I469" s="14">
         <v>464</v>
       </c>
@@ -12089,7 +12111,7 @@
       </c>
       <c r="L469" s="14"/>
     </row>
-    <row r="470" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="470" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I470" s="14">
         <v>465</v>
       </c>
@@ -12101,7 +12123,7 @@
       </c>
       <c r="L470" s="14"/>
     </row>
-    <row r="471" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="471" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I471" s="14">
         <v>466</v>
       </c>
@@ -12113,7 +12135,7 @@
       </c>
       <c r="L471" s="14"/>
     </row>
-    <row r="472" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="472" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I472" s="14">
         <v>467</v>
       </c>
@@ -12125,7 +12147,7 @@
       </c>
       <c r="L472" s="14"/>
     </row>
-    <row r="473" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="473" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I473" s="14">
         <v>468</v>
       </c>
@@ -12137,7 +12159,7 @@
       </c>
       <c r="L473" s="14"/>
     </row>
-    <row r="474" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="474" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I474" s="14">
         <v>469</v>
       </c>
@@ -12149,7 +12171,7 @@
       </c>
       <c r="L474" s="14"/>
     </row>
-    <row r="475" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="475" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I475" s="14">
         <v>470</v>
       </c>
@@ -12161,7 +12183,7 @@
       </c>
       <c r="L475" s="14"/>
     </row>
-    <row r="476" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="476" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I476" s="14">
         <v>471</v>
       </c>
@@ -12173,7 +12195,7 @@
       </c>
       <c r="L476" s="14"/>
     </row>
-    <row r="477" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="477" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I477" s="14">
         <v>472</v>
       </c>
@@ -12185,7 +12207,7 @@
       </c>
       <c r="L477" s="14"/>
     </row>
-    <row r="478" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="478" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I478" s="14">
         <v>473</v>
       </c>
@@ -12197,7 +12219,7 @@
       </c>
       <c r="L478" s="14"/>
     </row>
-    <row r="479" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="479" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I479" s="14">
         <v>474</v>
       </c>
@@ -12209,7 +12231,7 @@
       </c>
       <c r="L479" s="14"/>
     </row>
-    <row r="480" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="480" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I480" s="14">
         <v>475</v>
       </c>
@@ -12221,7 +12243,7 @@
       </c>
       <c r="L480" s="14"/>
     </row>
-    <row r="481" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="481" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I481" s="14">
         <v>476</v>
       </c>
@@ -12233,7 +12255,7 @@
       </c>
       <c r="L481" s="14"/>
     </row>
-    <row r="482" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="482" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I482" s="14">
         <v>477</v>
       </c>
@@ -12245,7 +12267,7 @@
       </c>
       <c r="L482" s="14"/>
     </row>
-    <row r="483" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="483" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I483" s="14">
         <v>478</v>
       </c>
@@ -12257,7 +12279,7 @@
       </c>
       <c r="L483" s="14"/>
     </row>
-    <row r="484" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="484" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I484" s="14">
         <v>479</v>
       </c>
@@ -12269,7 +12291,7 @@
       </c>
       <c r="L484" s="14"/>
     </row>
-    <row r="485" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="485" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I485" s="14">
         <v>480</v>
       </c>
@@ -12281,7 +12303,7 @@
       </c>
       <c r="L485" s="14"/>
     </row>
-    <row r="486" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="486" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I486" s="14">
         <v>481</v>
       </c>
@@ -12293,7 +12315,7 @@
       </c>
       <c r="L486" s="14"/>
     </row>
-    <row r="487" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="487" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I487" s="14">
         <v>482</v>
       </c>
@@ -12305,7 +12327,7 @@
       </c>
       <c r="L487" s="14"/>
     </row>
-    <row r="488" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="488" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I488" s="14">
         <v>483</v>
       </c>
@@ -12317,7 +12339,7 @@
       </c>
       <c r="L488" s="14"/>
     </row>
-    <row r="489" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="489" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I489" s="14">
         <v>484</v>
       </c>
@@ -12329,7 +12351,7 @@
       </c>
       <c r="L489" s="14"/>
     </row>
-    <row r="490" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="490" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I490" s="14">
         <v>485</v>
       </c>
@@ -12341,7 +12363,7 @@
       </c>
       <c r="L490" s="14"/>
     </row>
-    <row r="491" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="491" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I491" s="14">
         <v>486</v>
       </c>
@@ -12353,7 +12375,7 @@
       </c>
       <c r="L491" s="14"/>
     </row>
-    <row r="492" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="492" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I492" s="14">
         <v>487</v>
       </c>
@@ -12365,7 +12387,7 @@
       </c>
       <c r="L492" s="14"/>
     </row>
-    <row r="493" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="493" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I493" s="14">
         <v>488</v>
       </c>
@@ -12377,7 +12399,7 @@
       </c>
       <c r="L493" s="14"/>
     </row>
-    <row r="494" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="494" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I494" s="14">
         <v>489</v>
       </c>
@@ -12389,7 +12411,7 @@
       </c>
       <c r="L494" s="14"/>
     </row>
-    <row r="495" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="495" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I495" s="14">
         <v>490</v>
       </c>
@@ -12401,7 +12423,7 @@
       </c>
       <c r="L495" s="14"/>
     </row>
-    <row r="496" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="496" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I496" s="14">
         <v>491</v>
       </c>
@@ -12413,7 +12435,7 @@
       </c>
       <c r="L496" s="14"/>
     </row>
-    <row r="497" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="497" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I497" s="14">
         <v>492</v>
       </c>
@@ -12425,7 +12447,7 @@
       </c>
       <c r="L497" s="14"/>
     </row>
-    <row r="498" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="498" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I498" s="14">
         <v>493</v>
       </c>
@@ -12437,7 +12459,7 @@
       </c>
       <c r="L498" s="14"/>
     </row>
-    <row r="499" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="499" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I499" s="14">
         <v>494</v>
       </c>
@@ -12449,7 +12471,7 @@
       </c>
       <c r="L499" s="14"/>
     </row>
-    <row r="500" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="500" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I500" s="14">
         <v>495</v>
       </c>
@@ -12461,7 +12483,7 @@
       </c>
       <c r="L500" s="14"/>
     </row>
-    <row r="501" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="501" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I501" s="14">
         <v>496</v>
       </c>
@@ -12473,7 +12495,7 @@
       </c>
       <c r="L501" s="14"/>
     </row>
-    <row r="502" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="502" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I502" s="14">
         <v>497</v>
       </c>
@@ -12485,7 +12507,7 @@
       </c>
       <c r="L502" s="14"/>
     </row>
-    <row r="503" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="503" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I503" s="14">
         <v>498</v>
       </c>
@@ -12497,7 +12519,7 @@
       </c>
       <c r="L503" s="14"/>
     </row>
-    <row r="504" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="504" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I504" s="14">
         <v>499</v>
       </c>
@@ -12509,7 +12531,7 @@
       </c>
       <c r="L504" s="14"/>
     </row>
-    <row r="505" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="505" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I505" s="14">
         <v>500</v>
       </c>
@@ -12521,7 +12543,7 @@
       </c>
       <c r="L505" s="14"/>
     </row>
-    <row r="506" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="506" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I506" s="14">
         <v>501</v>
       </c>
@@ -12533,7 +12555,7 @@
       </c>
       <c r="L506" s="14"/>
     </row>
-    <row r="507" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="507" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I507" s="14">
         <v>502</v>
       </c>
@@ -12543,7 +12565,7 @@
       <c r="K507" s="14"/>
       <c r="L507" s="14"/>
     </row>
-    <row r="508" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="508" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I508" s="14">
         <v>503</v>
       </c>
@@ -12553,7 +12575,7 @@
       <c r="K508" s="14"/>
       <c r="L508" s="14"/>
     </row>
-    <row r="509" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="509" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I509" s="14">
         <v>504</v>
       </c>
@@ -12565,7 +12587,7 @@
       </c>
       <c r="L509" s="14"/>
     </row>
-    <row r="510" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="510" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I510" s="14">
         <v>505</v>
       </c>
@@ -12577,7 +12599,7 @@
       </c>
       <c r="L510" s="14"/>
     </row>
-    <row r="511" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="511" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I511" s="14">
         <v>506</v>
       </c>
@@ -12589,7 +12611,7 @@
       </c>
       <c r="L511" s="14"/>
     </row>
-    <row r="512" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="512" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I512" s="14">
         <v>507</v>
       </c>
@@ -12601,7 +12623,7 @@
       </c>
       <c r="L512" s="14"/>
     </row>
-    <row r="513" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="513" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I513" s="14">
         <v>508</v>
       </c>
@@ -12613,7 +12635,7 @@
       </c>
       <c r="L513" s="14"/>
     </row>
-    <row r="514" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="514" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I514" s="14">
         <v>509</v>
       </c>
@@ -12625,7 +12647,7 @@
       </c>
       <c r="L514" s="14"/>
     </row>
-    <row r="515" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="515" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I515" s="14">
         <v>510</v>
       </c>
@@ -12637,7 +12659,7 @@
       </c>
       <c r="L515" s="14"/>
     </row>
-    <row r="516" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="516" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I516" s="14">
         <v>511</v>
       </c>
@@ -12649,7 +12671,7 @@
       </c>
       <c r="L516" s="14"/>
     </row>
-    <row r="517" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="517" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I517" s="14">
         <v>512</v>
       </c>
@@ -12661,7 +12683,7 @@
       </c>
       <c r="L517" s="14"/>
     </row>
-    <row r="518" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="518" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I518" s="14">
         <v>513</v>
       </c>
@@ -12673,7 +12695,7 @@
       </c>
       <c r="L518" s="14"/>
     </row>
-    <row r="519" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="519" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I519" s="14">
         <v>514</v>
       </c>
@@ -12685,7 +12707,7 @@
       </c>
       <c r="L519" s="14"/>
     </row>
-    <row r="520" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="520" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I520" s="14">
         <v>515</v>
       </c>
@@ -12697,7 +12719,7 @@
       </c>
       <c r="L520" s="14"/>
     </row>
-    <row r="521" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="521" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I521" s="14">
         <v>516</v>
       </c>
@@ -12709,7 +12731,7 @@
       </c>
       <c r="L521" s="14"/>
     </row>
-    <row r="522" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="522" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I522" s="14">
         <v>517</v>
       </c>
@@ -12721,7 +12743,7 @@
       </c>
       <c r="L522" s="14"/>
     </row>
-    <row r="523" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="523" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I523" s="14">
         <v>518</v>
       </c>
@@ -12733,7 +12755,7 @@
       </c>
       <c r="L523" s="14"/>
     </row>
-    <row r="524" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="524" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I524" s="14">
         <v>519</v>
       </c>
@@ -12745,7 +12767,7 @@
       </c>
       <c r="L524" s="14"/>
     </row>
-    <row r="525" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="525" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I525" s="14">
         <v>520</v>
       </c>
@@ -12755,7 +12777,7 @@
       <c r="K525" s="14"/>
       <c r="L525" s="14"/>
     </row>
-    <row r="526" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="526" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I526" s="14">
         <v>521</v>
       </c>
@@ -12767,7 +12789,7 @@
       </c>
       <c r="L526" s="14"/>
     </row>
-    <row r="527" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="527" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I527" s="14">
         <v>522</v>
       </c>
@@ -12779,7 +12801,7 @@
       </c>
       <c r="L527" s="14"/>
     </row>
-    <row r="528" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="528" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I528" s="14">
         <v>523</v>
       </c>
@@ -12791,7 +12813,7 @@
       </c>
       <c r="L528" s="14"/>
     </row>
-    <row r="529" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="529" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I529" s="14">
         <v>524</v>
       </c>
@@ -12803,7 +12825,7 @@
       </c>
       <c r="L529" s="14"/>
     </row>
-    <row r="530" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="530" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I530" s="14">
         <v>525</v>
       </c>
@@ -12815,7 +12837,7 @@
       </c>
       <c r="L530" s="14"/>
     </row>
-    <row r="531" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="531" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I531" s="14">
         <v>526</v>
       </c>
@@ -12827,7 +12849,7 @@
       </c>
       <c r="L531" s="14"/>
     </row>
-    <row r="532" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="532" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I532" s="14">
         <v>527</v>
       </c>
@@ -12839,7 +12861,7 @@
       </c>
       <c r="L532" s="14"/>
     </row>
-    <row r="533" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="533" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I533" s="14">
         <v>528</v>
       </c>
@@ -12851,7 +12873,7 @@
       </c>
       <c r="L533" s="14"/>
     </row>
-    <row r="534" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="534" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I534" s="14">
         <v>529</v>
       </c>
@@ -12863,7 +12885,7 @@
       </c>
       <c r="L534" s="14"/>
     </row>
-    <row r="535" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="535" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I535" s="14">
         <v>530</v>
       </c>
@@ -12875,7 +12897,7 @@
       </c>
       <c r="L535" s="14"/>
     </row>
-    <row r="536" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="536" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I536" s="14">
         <v>531</v>
       </c>
@@ -12887,7 +12909,7 @@
       </c>
       <c r="L536" s="14"/>
     </row>
-    <row r="537" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="537" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I537" s="14">
         <v>532</v>
       </c>
@@ -12899,7 +12921,7 @@
       </c>
       <c r="L537" s="14"/>
     </row>
-    <row r="538" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="538" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I538" s="14">
         <v>533</v>
       </c>
@@ -12911,7 +12933,7 @@
       </c>
       <c r="L538" s="14"/>
     </row>
-    <row r="539" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="539" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I539" s="14">
         <v>534</v>
       </c>
@@ -12923,7 +12945,7 @@
       </c>
       <c r="L539" s="14"/>
     </row>
-    <row r="540" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="540" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I540" s="14">
         <v>535</v>
       </c>
@@ -12935,7 +12957,7 @@
       </c>
       <c r="L540" s="14"/>
     </row>
-    <row r="541" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="541" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I541" s="14">
         <v>536</v>
       </c>
@@ -12947,7 +12969,7 @@
       </c>
       <c r="L541" s="14"/>
     </row>
-    <row r="542" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="542" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I542" s="14">
         <v>537</v>
       </c>
@@ -12959,7 +12981,7 @@
       </c>
       <c r="L542" s="14"/>
     </row>
-    <row r="543" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="543" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I543" s="14">
         <v>538</v>
       </c>
@@ -12971,7 +12993,7 @@
       </c>
       <c r="L543" s="14"/>
     </row>
-    <row r="544" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="544" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I544" s="14">
         <v>539</v>
       </c>
@@ -12983,7 +13005,7 @@
       </c>
       <c r="L544" s="14"/>
     </row>
-    <row r="545" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="545" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I545" s="14">
         <v>540</v>
       </c>
@@ -12995,7 +13017,7 @@
       </c>
       <c r="L545" s="14"/>
     </row>
-    <row r="546" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="546" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I546" s="14">
         <v>541</v>
       </c>
@@ -13007,7 +13029,7 @@
       </c>
       <c r="L546" s="14"/>
     </row>
-    <row r="547" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="547" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I547" s="14">
         <v>542</v>
       </c>
@@ -13019,7 +13041,7 @@
       </c>
       <c r="L547" s="14"/>
     </row>
-    <row r="548" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="548" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I548" s="14">
         <v>543</v>
       </c>
@@ -13031,7 +13053,7 @@
       </c>
       <c r="L548" s="14"/>
     </row>
-    <row r="549" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="549" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I549" s="14">
         <v>544</v>
       </c>
@@ -13043,7 +13065,7 @@
       </c>
       <c r="L549" s="14"/>
     </row>
-    <row r="550" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="550" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I550" s="14">
         <v>545</v>
       </c>
@@ -13055,7 +13077,7 @@
       </c>
       <c r="L550" s="14"/>
     </row>
-    <row r="551" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="551" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I551" s="14">
         <v>546</v>
       </c>
@@ -13067,7 +13089,7 @@
       </c>
       <c r="L551" s="14"/>
     </row>
-    <row r="552" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="552" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I552" s="14">
         <v>547</v>
       </c>
@@ -13079,7 +13101,7 @@
       </c>
       <c r="L552" s="14"/>
     </row>
-    <row r="553" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="553" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I553" s="14">
         <v>548</v>
       </c>
@@ -13091,7 +13113,7 @@
       </c>
       <c r="L553" s="14"/>
     </row>
-    <row r="554" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="554" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I554" s="14">
         <v>549</v>
       </c>
@@ -13103,7 +13125,7 @@
       </c>
       <c r="L554" s="14"/>
     </row>
-    <row r="555" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="555" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I555" s="14">
         <v>550</v>
       </c>
@@ -13115,7 +13137,7 @@
       </c>
       <c r="L555" s="14"/>
     </row>
-    <row r="556" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="556" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I556" s="14">
         <v>551</v>
       </c>
@@ -13127,7 +13149,7 @@
       </c>
       <c r="L556" s="14"/>
     </row>
-    <row r="557" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="557" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I557" s="14">
         <v>552</v>
       </c>
@@ -13139,7 +13161,7 @@
       </c>
       <c r="L557" s="14"/>
     </row>
-    <row r="558" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="558" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I558" s="14">
         <v>553</v>
       </c>
@@ -13151,7 +13173,7 @@
       </c>
       <c r="L558" s="14"/>
     </row>
-    <row r="559" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="559" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I559" s="14">
         <v>554</v>
       </c>
@@ -13163,7 +13185,7 @@
       </c>
       <c r="L559" s="14"/>
     </row>
-    <row r="560" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="560" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I560" s="14">
         <v>555</v>
       </c>
@@ -13175,7 +13197,7 @@
       </c>
       <c r="L560" s="14"/>
     </row>
-    <row r="561" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="561" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I561" s="14">
         <v>556</v>
       </c>
@@ -13187,7 +13209,7 @@
       </c>
       <c r="L561" s="14"/>
     </row>
-    <row r="562" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="562" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I562" s="14">
         <v>557</v>
       </c>
@@ -13199,7 +13221,7 @@
       </c>
       <c r="L562" s="14"/>
     </row>
-    <row r="563" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="563" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I563" s="14">
         <v>558</v>
       </c>
@@ -13211,7 +13233,7 @@
       </c>
       <c r="L563" s="14"/>
     </row>
-    <row r="564" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="564" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I564" s="14">
         <v>559</v>
       </c>
@@ -13223,7 +13245,7 @@
       </c>
       <c r="L564" s="14"/>
     </row>
-    <row r="565" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="565" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I565" s="14">
         <v>560</v>
       </c>
@@ -13235,7 +13257,7 @@
       </c>
       <c r="L565" s="14"/>
     </row>
-    <row r="566" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="566" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I566" s="14">
         <v>561</v>
       </c>
@@ -13247,7 +13269,7 @@
       </c>
       <c r="L566" s="14"/>
     </row>
-    <row r="567" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="567" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I567" s="14">
         <v>562</v>
       </c>
@@ -13259,7 +13281,7 @@
       </c>
       <c r="L567" s="14"/>
     </row>
-    <row r="568" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="568" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I568" s="14">
         <v>563</v>
       </c>
@@ -13271,7 +13293,7 @@
       </c>
       <c r="L568" s="14"/>
     </row>
-    <row r="569" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="569" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I569" s="14">
         <v>564</v>
       </c>
@@ -13283,7 +13305,7 @@
       </c>
       <c r="L569" s="14"/>
     </row>
-    <row r="570" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="570" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I570" s="14">
         <v>565</v>
       </c>
@@ -13295,7 +13317,7 @@
       </c>
       <c r="L570" s="14"/>
     </row>
-    <row r="571" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="571" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I571" s="14">
         <v>566</v>
       </c>
@@ -13307,7 +13329,7 @@
       </c>
       <c r="L571" s="14"/>
     </row>
-    <row r="572" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="572" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I572" s="14">
         <v>567</v>
       </c>
@@ -13319,7 +13341,7 @@
       </c>
       <c r="L572" s="14"/>
     </row>
-    <row r="573" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="573" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I573" s="14">
         <v>568</v>
       </c>
@@ -13331,7 +13353,7 @@
       </c>
       <c r="L573" s="14"/>
     </row>
-    <row r="574" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="574" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I574" s="14">
         <v>569</v>
       </c>
@@ -13343,7 +13365,7 @@
       </c>
       <c r="L574" s="14"/>
     </row>
-    <row r="575" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="575" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I575" s="14">
         <v>570</v>
       </c>
@@ -13355,7 +13377,7 @@
       </c>
       <c r="L575" s="14"/>
     </row>
-    <row r="576" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="576" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I576" s="14">
         <v>571</v>
       </c>
@@ -13367,7 +13389,7 @@
       </c>
       <c r="L576" s="14"/>
     </row>
-    <row r="577" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="577" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I577" s="14">
         <v>572</v>
       </c>
@@ -13379,7 +13401,7 @@
       </c>
       <c r="L577" s="14"/>
     </row>
-    <row r="578" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="578" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I578" s="14">
         <v>573</v>
       </c>
@@ -13391,7 +13413,7 @@
       </c>
       <c r="L578" s="14"/>
     </row>
-    <row r="579" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="579" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I579" s="14">
         <v>574</v>
       </c>
@@ -13403,7 +13425,7 @@
       </c>
       <c r="L579" s="14"/>
     </row>
-    <row r="580" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="580" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I580" s="14">
         <v>575</v>
       </c>
@@ -13415,7 +13437,7 @@
       </c>
       <c r="L580" s="14"/>
     </row>
-    <row r="581" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="581" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I581" s="14">
         <v>576</v>
       </c>
@@ -13427,7 +13449,7 @@
       </c>
       <c r="L581" s="14"/>
     </row>
-    <row r="582" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="582" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I582" s="14">
         <v>577</v>
       </c>
@@ -13437,7 +13459,7 @@
       <c r="K582" s="14"/>
       <c r="L582" s="14"/>
     </row>
-    <row r="583" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="583" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I583" s="14">
         <v>578</v>
       </c>
@@ -13447,7 +13469,7 @@
       <c r="K583" s="14"/>
       <c r="L583" s="14"/>
     </row>
-    <row r="584" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="584" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I584" s="14">
         <v>579</v>
       </c>
@@ -13459,7 +13481,7 @@
       </c>
       <c r="L584" s="14"/>
     </row>
-    <row r="585" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="585" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I585" s="14">
         <v>580</v>
       </c>
@@ -13471,7 +13493,7 @@
       </c>
       <c r="L585" s="14"/>
     </row>
-    <row r="586" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="586" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I586" s="14">
         <v>581</v>
       </c>
@@ -13483,7 +13505,7 @@
       </c>
       <c r="L586" s="14"/>
     </row>
-    <row r="587" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="587" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I587" s="14">
         <v>582</v>
       </c>
@@ -13495,7 +13517,7 @@
       </c>
       <c r="L587" s="14"/>
     </row>
-    <row r="588" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="588" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I588" s="14">
         <v>583</v>
       </c>
@@ -13507,7 +13529,7 @@
       </c>
       <c r="L588" s="14"/>
     </row>
-    <row r="589" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="589" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I589" s="14">
         <v>584</v>
       </c>
@@ -13519,7 +13541,7 @@
       </c>
       <c r="L589" s="14"/>
     </row>
-    <row r="590" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="590" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I590" s="14">
         <v>585</v>
       </c>
@@ -13531,7 +13553,7 @@
       </c>
       <c r="L590" s="14"/>
     </row>
-    <row r="591" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="591" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I591" s="14">
         <v>586</v>
       </c>
@@ -13543,7 +13565,7 @@
       </c>
       <c r="L591" s="14"/>
     </row>
-    <row r="592" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="592" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I592" s="14">
         <v>587</v>
       </c>
@@ -13555,7 +13577,7 @@
       </c>
       <c r="L592" s="14"/>
     </row>
-    <row r="593" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="593" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I593" s="14">
         <v>588</v>
       </c>
@@ -13567,7 +13589,7 @@
       </c>
       <c r="L593" s="14"/>
     </row>
-    <row r="594" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="594" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I594" s="14">
         <v>589</v>
       </c>
@@ -13579,7 +13601,7 @@
       </c>
       <c r="L594" s="14"/>
     </row>
-    <row r="595" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="595" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I595" s="14">
         <v>590</v>
       </c>
@@ -13591,7 +13613,7 @@
       </c>
       <c r="L595" s="14"/>
     </row>
-    <row r="596" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="596" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I596" s="14">
         <v>591</v>
       </c>
@@ -13603,7 +13625,7 @@
       </c>
       <c r="L596" s="14"/>
     </row>
-    <row r="597" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="597" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I597" s="14">
         <v>592</v>
       </c>
@@ -13615,7 +13637,7 @@
       </c>
       <c r="L597" s="14"/>
     </row>
-    <row r="598" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="598" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I598" s="14">
         <v>593</v>
       </c>
@@ -13627,7 +13649,7 @@
       </c>
       <c r="L598" s="14"/>
     </row>
-    <row r="599" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="599" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I599" s="14">
         <v>594</v>
       </c>
@@ -13639,7 +13661,7 @@
       </c>
       <c r="L599" s="14"/>
     </row>
-    <row r="600" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="600" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I600" s="14">
         <v>595</v>
       </c>
@@ -13651,7 +13673,7 @@
       </c>
       <c r="L600" s="14"/>
     </row>
-    <row r="601" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="601" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I601" s="14">
         <v>596</v>
       </c>
@@ -13663,7 +13685,7 @@
       </c>
       <c r="L601" s="14"/>
     </row>
-    <row r="602" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="602" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I602" s="14">
         <v>597</v>
       </c>
@@ -13675,7 +13697,7 @@
       </c>
       <c r="L602" s="14"/>
     </row>
-    <row r="603" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="603" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I603" s="14">
         <v>598</v>
       </c>
@@ -13687,7 +13709,7 @@
       </c>
       <c r="L603" s="14"/>
     </row>
-    <row r="604" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="604" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I604" s="14">
         <v>599</v>
       </c>
@@ -13699,7 +13721,7 @@
       </c>
       <c r="L604" s="14"/>
     </row>
-    <row r="605" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="605" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I605" s="14">
         <v>600</v>
       </c>
@@ -13711,7 +13733,7 @@
       </c>
       <c r="L605" s="14"/>
     </row>
-    <row r="606" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="606" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I606" s="14">
         <v>601</v>
       </c>
@@ -13723,7 +13745,7 @@
       </c>
       <c r="L606" s="14"/>
     </row>
-    <row r="607" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="607" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I607" s="14">
         <v>602</v>
       </c>
@@ -13735,7 +13757,7 @@
       </c>
       <c r="L607" s="14"/>
     </row>
-    <row r="608" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="608" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I608" s="14">
         <v>603</v>
       </c>
@@ -13747,7 +13769,7 @@
       </c>
       <c r="L608" s="14"/>
     </row>
-    <row r="609" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="609" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I609" s="14">
         <v>604</v>
       </c>
@@ -13759,7 +13781,7 @@
       </c>
       <c r="L609" s="14"/>
     </row>
-    <row r="610" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="610" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I610" s="14">
         <v>605</v>
       </c>
@@ -13771,7 +13793,7 @@
       </c>
       <c r="L610" s="14"/>
     </row>
-    <row r="611" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="611" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I611" s="14">
         <v>606</v>
       </c>
@@ -13783,7 +13805,7 @@
       </c>
       <c r="L611" s="14"/>
     </row>
-    <row r="612" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="612" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I612" s="14">
         <v>607</v>
       </c>
@@ -13795,7 +13817,7 @@
       </c>
       <c r="L612" s="14"/>
     </row>
-    <row r="613" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="613" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I613" s="14">
         <v>608</v>
       </c>
@@ -13807,7 +13829,7 @@
       </c>
       <c r="L613" s="14"/>
     </row>
-    <row r="614" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="614" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I614" s="14">
         <v>609</v>
       </c>
@@ -13819,7 +13841,7 @@
       </c>
       <c r="L614" s="14"/>
     </row>
-    <row r="615" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="615" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I615" s="14">
         <v>610</v>
       </c>
@@ -13831,7 +13853,7 @@
       </c>
       <c r="L615" s="14"/>
     </row>
-    <row r="616" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="616" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I616" s="14">
         <v>611</v>
       </c>
@@ -13843,7 +13865,7 @@
       </c>
       <c r="L616" s="14"/>
     </row>
-    <row r="617" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="617" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I617" s="14">
         <v>612</v>
       </c>
@@ -13855,7 +13877,7 @@
       </c>
       <c r="L617" s="14"/>
     </row>
-    <row r="618" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="618" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I618" s="14">
         <v>613</v>
       </c>
@@ -13867,7 +13889,7 @@
       </c>
       <c r="L618" s="14"/>
     </row>
-    <row r="619" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="619" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I619" s="14">
         <v>614</v>
       </c>
@@ -13879,7 +13901,7 @@
       </c>
       <c r="L619" s="14"/>
     </row>
-    <row r="620" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="620" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I620" s="14">
         <v>615</v>
       </c>
@@ -13891,7 +13913,7 @@
       </c>
       <c r="L620" s="14"/>
     </row>
-    <row r="621" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="621" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I621" s="14">
         <v>616</v>
       </c>
@@ -13903,7 +13925,7 @@
       </c>
       <c r="L621" s="14"/>
     </row>
-    <row r="622" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="622" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I622" s="14">
         <v>617</v>
       </c>
@@ -13915,7 +13937,7 @@
       </c>
       <c r="L622" s="14"/>
     </row>
-    <row r="623" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="623" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I623" s="14">
         <v>618</v>
       </c>
@@ -13927,7 +13949,7 @@
       </c>
       <c r="L623" s="14"/>
     </row>
-    <row r="624" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="624" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I624" s="14">
         <v>619</v>
       </c>
@@ -13939,7 +13961,7 @@
       </c>
       <c r="L624" s="14"/>
     </row>
-    <row r="625" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="625" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I625" s="14">
         <v>620</v>
       </c>
@@ -13951,7 +13973,7 @@
       </c>
       <c r="L625" s="14"/>
     </row>
-    <row r="626" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="626" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I626" s="14">
         <v>621</v>
       </c>
@@ -13963,7 +13985,7 @@
       </c>
       <c r="L626" s="14"/>
     </row>
-    <row r="627" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="627" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I627" s="14">
         <v>622</v>
       </c>
@@ -13975,7 +13997,7 @@
       </c>
       <c r="L627" s="14"/>
     </row>
-    <row r="628" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="628" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I628" s="14">
         <v>623</v>
       </c>
@@ -13987,7 +14009,7 @@
       </c>
       <c r="L628" s="14"/>
     </row>
-    <row r="629" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="629" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I629" s="14">
         <v>624</v>
       </c>
@@ -13999,7 +14021,7 @@
       </c>
       <c r="L629" s="14"/>
     </row>
-    <row r="630" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="630" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I630" s="14">
         <v>625</v>
       </c>
@@ -14011,7 +14033,7 @@
       </c>
       <c r="L630" s="14"/>
     </row>
-    <row r="631" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="631" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I631" s="14">
         <v>626</v>
       </c>
@@ -14023,7 +14045,7 @@
       </c>
       <c r="L631" s="14"/>
     </row>
-    <row r="632" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="632" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I632" s="14">
         <v>627</v>
       </c>
@@ -14035,7 +14057,7 @@
       </c>
       <c r="L632" s="14"/>
     </row>
-    <row r="633" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="633" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I633" s="14">
         <v>628</v>
       </c>
@@ -14047,7 +14069,7 @@
       </c>
       <c r="L633" s="14"/>
     </row>
-    <row r="634" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="634" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I634" s="14">
         <v>629</v>
       </c>
@@ -14059,7 +14081,7 @@
       </c>
       <c r="L634" s="14"/>
     </row>
-    <row r="635" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="635" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I635" s="14">
         <v>630</v>
       </c>
@@ -14071,7 +14093,7 @@
       </c>
       <c r="L635" s="14"/>
     </row>
-    <row r="636" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="636" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I636" s="14">
         <v>631</v>
       </c>
@@ -14083,7 +14105,7 @@
       </c>
       <c r="L636" s="14"/>
     </row>
-    <row r="637" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="637" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I637" s="14">
         <v>632</v>
       </c>
@@ -14095,7 +14117,7 @@
       </c>
       <c r="L637" s="14"/>
     </row>
-    <row r="638" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="638" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I638" s="14">
         <v>633</v>
       </c>
@@ -14107,7 +14129,7 @@
       </c>
       <c r="L638" s="14"/>
     </row>
-    <row r="639" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="639" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I639" s="14">
         <v>634</v>
       </c>
@@ -14119,7 +14141,7 @@
       </c>
       <c r="L639" s="14"/>
     </row>
-    <row r="640" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="640" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I640" s="14">
         <v>635</v>
       </c>
@@ -14131,7 +14153,7 @@
       </c>
       <c r="L640" s="14"/>
     </row>
-    <row r="641" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="641" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I641" s="14">
         <v>636</v>
       </c>
@@ -14143,7 +14165,7 @@
       </c>
       <c r="L641" s="14"/>
     </row>
-    <row r="642" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="642" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I642" s="14">
         <v>637</v>
       </c>
@@ -14155,7 +14177,7 @@
       </c>
       <c r="L642" s="14"/>
     </row>
-    <row r="643" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="643" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I643" s="14">
         <v>638</v>
       </c>
@@ -14167,7 +14189,7 @@
       </c>
       <c r="L643" s="14"/>
     </row>
-    <row r="644" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="644" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I644" s="14">
         <v>639</v>
       </c>
@@ -14179,7 +14201,7 @@
       </c>
       <c r="L644" s="14"/>
     </row>
-    <row r="645" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="645" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I645" s="14">
         <v>640</v>
       </c>
@@ -14191,7 +14213,7 @@
       </c>
       <c r="L645" s="14"/>
     </row>
-    <row r="646" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="646" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I646" s="14">
         <v>641</v>
       </c>
@@ -14203,7 +14225,7 @@
       </c>
       <c r="L646" s="14"/>
     </row>
-    <row r="647" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="647" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I647" s="14">
         <v>642</v>
       </c>
@@ -14215,7 +14237,7 @@
       </c>
       <c r="L647" s="14"/>
     </row>
-    <row r="648" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="648" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I648" s="14">
         <v>643</v>
       </c>
@@ -14227,7 +14249,7 @@
       </c>
       <c r="L648" s="14"/>
     </row>
-    <row r="649" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="649" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I649" s="14">
         <v>644</v>
       </c>
@@ -14239,7 +14261,7 @@
       </c>
       <c r="L649" s="14"/>
     </row>
-    <row r="650" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="650" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I650" s="14">
         <v>645</v>
       </c>
@@ -14251,7 +14273,7 @@
       </c>
       <c r="L650" s="14"/>
     </row>
-    <row r="651" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="651" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I651" s="14">
         <v>646</v>
       </c>
@@ -14263,7 +14285,7 @@
       </c>
       <c r="L651" s="14"/>
     </row>
-    <row r="652" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="652" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I652" s="14">
         <v>647</v>
       </c>
@@ -14275,7 +14297,7 @@
       </c>
       <c r="L652" s="14"/>
     </row>
-    <row r="653" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="653" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I653" s="14">
         <v>648</v>
       </c>
@@ -14287,7 +14309,7 @@
       </c>
       <c r="L653" s="14"/>
     </row>
-    <row r="654" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="654" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I654" s="14">
         <v>649</v>
       </c>
@@ -14299,7 +14321,7 @@
       </c>
       <c r="L654" s="14"/>
     </row>
-    <row r="655" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="655" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I655" s="14">
         <v>650</v>
       </c>
@@ -14311,7 +14333,7 @@
       </c>
       <c r="L655" s="14"/>
     </row>
-    <row r="656" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="656" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I656" s="14">
         <v>651</v>
       </c>
@@ -14323,7 +14345,7 @@
       </c>
       <c r="L656" s="14"/>
     </row>
-    <row r="657" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="657" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I657" s="14">
         <v>652</v>
       </c>
@@ -14335,7 +14357,7 @@
       </c>
       <c r="L657" s="14"/>
     </row>
-    <row r="658" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="658" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I658" s="14">
         <v>653</v>
       </c>
@@ -14347,7 +14369,7 @@
       </c>
       <c r="L658" s="14"/>
     </row>
-    <row r="659" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="659" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I659" s="14">
         <v>654</v>
       </c>
@@ -14359,7 +14381,7 @@
       </c>
       <c r="L659" s="14"/>
     </row>
-    <row r="660" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="660" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I660" s="14">
         <v>655</v>
       </c>
@@ -14371,7 +14393,7 @@
       </c>
       <c r="L660" s="14"/>
     </row>
-    <row r="661" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="661" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I661" s="14">
         <v>656</v>
       </c>
@@ -14383,7 +14405,7 @@
       </c>
       <c r="L661" s="14"/>
     </row>
-    <row r="662" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="662" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I662" s="14">
         <v>657</v>
       </c>
@@ -14395,7 +14417,7 @@
       </c>
       <c r="L662" s="14"/>
     </row>
-    <row r="663" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="663" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I663" s="14">
         <v>658</v>
       </c>
@@ -14407,7 +14429,7 @@
       </c>
       <c r="L663" s="14"/>
     </row>
-    <row r="664" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="664" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I664" s="14">
         <v>659</v>
       </c>
@@ -14419,7 +14441,7 @@
       </c>
       <c r="L664" s="14"/>
     </row>
-    <row r="665" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="665" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I665" s="14">
         <v>660</v>
       </c>
@@ -14431,7 +14453,7 @@
       </c>
       <c r="L665" s="14"/>
     </row>
-    <row r="666" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="666" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I666" s="14">
         <v>661</v>
       </c>
@@ -14443,7 +14465,7 @@
       </c>
       <c r="L666" s="14"/>
     </row>
-    <row r="667" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="667" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I667" s="14">
         <v>662</v>
       </c>
@@ -14455,7 +14477,7 @@
       </c>
       <c r="L667" s="14"/>
     </row>
-    <row r="668" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="668" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I668" s="14">
         <v>663</v>
       </c>
@@ -14467,7 +14489,7 @@
       </c>
       <c r="L668" s="14"/>
     </row>
-    <row r="669" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="669" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I669" s="14">
         <v>664</v>
       </c>
@@ -14479,7 +14501,7 @@
       </c>
       <c r="L669" s="14"/>
     </row>
-    <row r="670" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="670" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I670" s="14">
         <v>665</v>
       </c>
@@ -14491,7 +14513,7 @@
       </c>
       <c r="L670" s="14"/>
     </row>
-    <row r="671" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="671" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I671" s="14">
         <v>666</v>
       </c>
@@ -14503,7 +14525,7 @@
       </c>
       <c r="L671" s="14"/>
     </row>
-    <row r="672" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="672" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I672" s="14">
         <v>667</v>
       </c>
@@ -14515,7 +14537,7 @@
       </c>
       <c r="L672" s="14"/>
     </row>
-    <row r="673" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="673" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I673" s="14">
         <v>668</v>
       </c>
@@ -14527,7 +14549,7 @@
       </c>
       <c r="L673" s="14"/>
     </row>
-    <row r="674" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="674" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I674" s="14">
         <v>669</v>
       </c>
@@ -14539,7 +14561,7 @@
       </c>
       <c r="L674" s="14"/>
     </row>
-    <row r="675" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="675" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I675" s="14">
         <v>670</v>
       </c>
@@ -14551,7 +14573,7 @@
       </c>
       <c r="L675" s="14"/>
     </row>
-    <row r="676" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="676" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I676" s="14">
         <v>671</v>
       </c>
@@ -14563,7 +14585,7 @@
       </c>
       <c r="L676" s="14"/>
     </row>
-    <row r="677" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="677" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I677" s="14">
         <v>672</v>
       </c>
@@ -14575,7 +14597,7 @@
       </c>
       <c r="L677" s="14"/>
     </row>
-    <row r="678" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="678" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I678" s="14">
         <v>673</v>
       </c>
@@ -14587,7 +14609,7 @@
       </c>
       <c r="L678" s="14"/>
     </row>
-    <row r="679" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="679" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I679" s="14">
         <v>674</v>
       </c>
@@ -14599,7 +14621,7 @@
       </c>
       <c r="L679" s="14"/>
     </row>
-    <row r="680" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="680" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I680" s="14">
         <v>675</v>
       </c>
@@ -14611,7 +14633,7 @@
       </c>
       <c r="L680" s="14"/>
     </row>
-    <row r="681" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="681" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I681" s="14">
         <v>676</v>
       </c>
@@ -14623,7 +14645,7 @@
       </c>
       <c r="L681" s="14"/>
     </row>
-    <row r="682" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="682" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I682" s="14">
         <v>677</v>
       </c>
@@ -14635,7 +14657,7 @@
       </c>
       <c r="L682" s="14"/>
     </row>
-    <row r="683" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="683" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I683" s="14">
         <v>678</v>
       </c>
@@ -14647,7 +14669,7 @@
       </c>
       <c r="L683" s="14"/>
     </row>
-    <row r="684" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="684" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I684" s="14">
         <v>679</v>
       </c>
@@ -14659,7 +14681,7 @@
       </c>
       <c r="L684" s="14"/>
     </row>
-    <row r="685" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="685" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I685" s="14">
         <v>680</v>
       </c>
@@ -14671,7 +14693,7 @@
       </c>
       <c r="L685" s="14"/>
     </row>
-    <row r="686" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="686" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I686" s="14">
         <v>681</v>
       </c>
@@ -14683,7 +14705,7 @@
       </c>
       <c r="L686" s="14"/>
     </row>
-    <row r="687" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="687" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I687" s="14">
         <v>682</v>
       </c>
@@ -14695,7 +14717,7 @@
       </c>
       <c r="L687" s="14"/>
     </row>
-    <row r="688" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="688" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I688" s="14">
         <v>683</v>
       </c>
@@ -14707,7 +14729,7 @@
       </c>
       <c r="L688" s="14"/>
     </row>
-    <row r="689" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="689" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I689" s="14">
         <v>684</v>
       </c>
@@ -14719,7 +14741,7 @@
       </c>
       <c r="L689" s="14"/>
     </row>
-    <row r="690" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="690" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I690" s="14">
         <v>685</v>
       </c>
@@ -14731,7 +14753,7 @@
       </c>
       <c r="L690" s="14"/>
     </row>
-    <row r="691" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="691" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I691" s="14">
         <v>686</v>
       </c>
@@ -14743,7 +14765,7 @@
       </c>
       <c r="L691" s="14"/>
     </row>
-    <row r="692" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="692" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I692" s="14">
         <v>687</v>
       </c>
@@ -14755,7 +14777,7 @@
       </c>
       <c r="L692" s="14"/>
     </row>
-    <row r="693" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="693" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I693" s="14">
         <v>688</v>
       </c>
@@ -14767,7 +14789,7 @@
       </c>
       <c r="L693" s="14"/>
     </row>
-    <row r="694" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="694" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I694" s="14">
         <v>689</v>
       </c>
@@ -14779,7 +14801,7 @@
       </c>
       <c r="L694" s="14"/>
     </row>
-    <row r="695" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="695" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I695" s="14">
         <v>690</v>
       </c>
@@ -14791,7 +14813,7 @@
       </c>
       <c r="L695" s="14"/>
     </row>
-    <row r="696" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="696" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I696" s="14">
         <v>691</v>
       </c>
@@ -14803,7 +14825,7 @@
       </c>
       <c r="L696" s="14"/>
     </row>
-    <row r="697" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="697" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I697" s="14">
         <v>692</v>
       </c>
@@ -14815,7 +14837,7 @@
       </c>
       <c r="L697" s="14"/>
     </row>
-    <row r="698" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="698" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I698" s="14">
         <v>693</v>
       </c>
@@ -14827,7 +14849,7 @@
       </c>
       <c r="L698" s="14"/>
     </row>
-    <row r="699" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="699" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I699" s="14">
         <v>694</v>
       </c>
@@ -14839,7 +14861,7 @@
       </c>
       <c r="L699" s="14"/>
     </row>
-    <row r="700" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="700" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I700" s="14">
         <v>695</v>
       </c>
@@ -14851,7 +14873,7 @@
       </c>
       <c r="L700" s="14"/>
     </row>
-    <row r="701" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="701" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I701" s="14">
         <v>696</v>
       </c>
@@ -14863,7 +14885,7 @@
       </c>
       <c r="L701" s="14"/>
     </row>
-    <row r="702" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="702" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I702" s="14">
         <v>697</v>
       </c>
@@ -14875,7 +14897,7 @@
       </c>
       <c r="L702" s="14"/>
     </row>
-    <row r="703" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="703" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I703" s="14">
         <v>698</v>
       </c>
@@ -14887,7 +14909,7 @@
       </c>
       <c r="L703" s="14"/>
     </row>
-    <row r="704" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="704" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I704" s="14">
         <v>699</v>
       </c>
@@ -14899,7 +14921,7 @@
       </c>
       <c r="L704" s="14"/>
     </row>
-    <row r="705" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="705" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I705" s="14">
         <v>700</v>
       </c>
@@ -14911,7 +14933,7 @@
       </c>
       <c r="L705" s="14"/>
     </row>
-    <row r="706" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="706" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I706" s="14">
         <v>701</v>
       </c>
@@ -14923,7 +14945,7 @@
       </c>
       <c r="L706" s="14"/>
     </row>
-    <row r="707" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="707" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I707" s="14">
         <v>702</v>
       </c>
@@ -14935,7 +14957,7 @@
       </c>
       <c r="L707" s="14"/>
     </row>
-    <row r="708" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="708" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I708" s="14">
         <v>703</v>
       </c>
@@ -14947,7 +14969,7 @@
       </c>
       <c r="L708" s="14"/>
     </row>
-    <row r="709" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="709" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I709" s="14">
         <v>704</v>
       </c>
@@ -14959,7 +14981,7 @@
       </c>
       <c r="L709" s="14"/>
     </row>
-    <row r="710" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="710" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I710" s="14">
         <v>705</v>
       </c>
@@ -14971,7 +14993,7 @@
       </c>
       <c r="L710" s="14"/>
     </row>
-    <row r="711" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="711" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I711" s="14">
         <v>706</v>
       </c>
@@ -14983,7 +15005,7 @@
       </c>
       <c r="L711" s="14"/>
     </row>
-    <row r="712" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="712" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I712" s="14">
         <v>707</v>
       </c>
@@ -14995,7 +15017,7 @@
       </c>
       <c r="L712" s="14"/>
     </row>
-    <row r="713" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="713" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I713" s="14">
         <v>708</v>
       </c>
@@ -15007,7 +15029,7 @@
       </c>
       <c r="L713" s="14"/>
     </row>
-    <row r="714" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="714" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I714" s="14">
         <v>709</v>
       </c>
@@ -15019,7 +15041,7 @@
       </c>
       <c r="L714" s="14"/>
     </row>
-    <row r="715" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="715" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I715" s="14">
         <v>710</v>
       </c>
@@ -15031,7 +15053,7 @@
       </c>
       <c r="L715" s="14"/>
     </row>
-    <row r="716" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="716" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I716" s="14">
         <v>711</v>
       </c>
@@ -15043,7 +15065,7 @@
       </c>
       <c r="L716" s="14"/>
     </row>
-    <row r="717" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="717" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I717" s="14">
         <v>712</v>
       </c>
@@ -15055,7 +15077,7 @@
       </c>
       <c r="L717" s="14"/>
     </row>
-    <row r="718" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="718" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I718" s="14">
         <v>713</v>
       </c>
@@ -15067,7 +15089,7 @@
       </c>
       <c r="L718" s="14"/>
     </row>
-    <row r="719" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="719" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I719" s="14">
         <v>714</v>
       </c>
@@ -15079,7 +15101,7 @@
       </c>
       <c r="L719" s="14"/>
     </row>
-    <row r="720" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="720" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I720" s="14">
         <v>715</v>
       </c>
@@ -15091,7 +15113,7 @@
       </c>
       <c r="L720" s="14"/>
     </row>
-    <row r="721" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="721" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I721" s="14">
         <v>716</v>
       </c>
@@ -15103,7 +15125,7 @@
       </c>
       <c r="L721" s="14"/>
     </row>
-    <row r="722" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="722" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I722" s="14">
         <v>717</v>
       </c>
@@ -15115,7 +15137,7 @@
       </c>
       <c r="L722" s="14"/>
     </row>
-    <row r="723" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="723" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I723" s="14">
         <v>718</v>
       </c>
@@ -15127,7 +15149,7 @@
       </c>
       <c r="L723" s="14"/>
     </row>
-    <row r="724" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="724" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I724" s="14">
         <v>719</v>
       </c>
@@ -15139,7 +15161,7 @@
       </c>
       <c r="L724" s="14"/>
     </row>
-    <row r="725" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="725" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I725" s="14">
         <v>720</v>
       </c>
@@ -15151,7 +15173,7 @@
       </c>
       <c r="L725" s="14"/>
     </row>
-    <row r="726" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="726" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I726" s="14">
         <v>721</v>
       </c>
@@ -15163,7 +15185,7 @@
       </c>
       <c r="L726" s="14"/>
     </row>
-    <row r="727" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="727" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I727" s="14">
         <v>722</v>
       </c>
@@ -15175,7 +15197,7 @@
       </c>
       <c r="L727" s="14"/>
     </row>
-    <row r="728" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="728" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I728" s="14">
         <v>723</v>
       </c>
@@ -15187,7 +15209,7 @@
       </c>
       <c r="L728" s="14"/>
     </row>
-    <row r="729" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="729" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I729" s="14">
         <v>724</v>
       </c>
@@ -15199,7 +15221,7 @@
       </c>
       <c r="L729" s="14"/>
     </row>
-    <row r="730" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="730" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I730" s="14">
         <v>725</v>
       </c>
@@ -15211,7 +15233,7 @@
       </c>
       <c r="L730" s="14"/>
     </row>
-    <row r="731" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="731" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I731" s="14">
         <v>726</v>
       </c>
@@ -15223,7 +15245,7 @@
       </c>
       <c r="L731" s="14"/>
     </row>
-    <row r="732" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="732" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I732" s="14">
         <v>727</v>
       </c>
@@ -15235,7 +15257,7 @@
       </c>
       <c r="L732" s="14"/>
     </row>
-    <row r="733" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="733" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I733" s="14">
         <v>728</v>
       </c>
@@ -15247,7 +15269,7 @@
       </c>
       <c r="L733" s="14"/>
     </row>
-    <row r="734" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="734" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I734" s="14">
         <v>729</v>
       </c>
@@ -15259,7 +15281,7 @@
       </c>
       <c r="L734" s="14"/>
     </row>
-    <row r="735" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="735" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I735" s="14">
         <v>730</v>
       </c>
@@ -15271,7 +15293,7 @@
       </c>
       <c r="L735" s="14"/>
     </row>
-    <row r="736" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="736" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I736" s="14">
         <v>731</v>
       </c>
@@ -15283,7 +15305,7 @@
       </c>
       <c r="L736" s="14"/>
     </row>
-    <row r="737" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="737" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I737" s="14">
         <v>732</v>
       </c>
@@ -15295,7 +15317,7 @@
       </c>
       <c r="L737" s="14"/>
     </row>
-    <row r="738" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="738" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I738" s="14">
         <v>733</v>
       </c>
@@ -15307,7 +15329,7 @@
       </c>
       <c r="L738" s="14"/>
     </row>
-    <row r="739" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="739" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I739" s="14">
         <v>734</v>
       </c>
@@ -15319,7 +15341,7 @@
       </c>
       <c r="L739" s="14"/>
     </row>
-    <row r="740" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="740" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I740" s="14">
         <v>735</v>
       </c>
@@ -15331,7 +15353,7 @@
       </c>
       <c r="L740" s="14"/>
     </row>
-    <row r="741" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="741" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I741" s="14">
         <v>736</v>
       </c>
@@ -15343,7 +15365,7 @@
       </c>
       <c r="L741" s="14"/>
     </row>
-    <row r="742" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="742" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I742" s="14">
         <v>737</v>
       </c>
@@ -15355,7 +15377,7 @@
       </c>
       <c r="L742" s="14"/>
     </row>
-    <row r="743" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="743" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I743" s="14">
         <v>738</v>
       </c>
@@ -15367,7 +15389,7 @@
       </c>
       <c r="L743" s="14"/>
     </row>
-    <row r="744" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="744" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I744" s="14">
         <v>739</v>
       </c>
@@ -15379,7 +15401,7 @@
       </c>
       <c r="L744" s="14"/>
     </row>
-    <row r="745" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="745" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I745" s="14">
         <v>740</v>
       </c>
@@ -15391,7 +15413,7 @@
       </c>
       <c r="L745" s="14"/>
     </row>
-    <row r="746" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="746" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I746" s="14">
         <v>741</v>
       </c>
@@ -15403,7 +15425,7 @@
       </c>
       <c r="L746" s="14"/>
     </row>
-    <row r="747" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="747" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I747" s="14">
         <v>742</v>
       </c>
@@ -15415,7 +15437,7 @@
       </c>
       <c r="L747" s="14"/>
     </row>
-    <row r="748" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="748" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I748" s="14">
         <v>743</v>
       </c>
@@ -15427,7 +15449,7 @@
       </c>
       <c r="L748" s="14"/>
     </row>
-    <row r="749" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="749" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I749" s="14">
         <v>744</v>
       </c>
@@ -15439,7 +15461,7 @@
       </c>
       <c r="L749" s="14"/>
     </row>
-    <row r="750" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="750" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I750" s="14">
         <v>745</v>
       </c>
@@ -15451,7 +15473,7 @@
       </c>
       <c r="L750" s="14"/>
     </row>
-    <row r="751" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="751" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I751" s="14">
         <v>746</v>
       </c>
@@ -15463,7 +15485,7 @@
       </c>
       <c r="L751" s="14"/>
     </row>
-    <row r="752" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="752" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I752" s="14">
         <v>747</v>
       </c>
@@ -15475,7 +15497,7 @@
       </c>
       <c r="L752" s="14"/>
     </row>
-    <row r="753" spans="9:12" x14ac:dyDescent="0.45">
+    <row r="753" spans="9:12" x14ac:dyDescent="0.4">
       <c r="I753" s="14">
         <v>748</v>
       </c>
@@ -15517,18 +15539,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.9140625" customWidth="1"/>
+    <col min="3" max="3" width="66.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -15542,7 +15564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="14">
         <v>1</v>
       </c>
@@ -15552,7 +15574,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>2</v>
       </c>
@@ -15566,7 +15588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>3</v>
       </c>
@@ -15574,7 +15596,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="14">
         <v>4</v>
       </c>
@@ -15582,7 +15604,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
         <v>5</v>
       </c>
@@ -15590,7 +15612,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
         <v>6</v>
       </c>
@@ -15598,7 +15620,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="14">
         <v>7</v>
       </c>
@@ -15606,7 +15628,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
         <v>8</v>
       </c>
@@ -15627,9 +15649,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>687</v>
       </c>
@@ -15646,7 +15668,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15659,7 +15681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15672,7 +15694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15685,7 +15707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15700,12 +15722,12 @@
       <selection activeCell="D4" sqref="D4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="51.4140625" customWidth="1"/>
+    <col min="3" max="3" width="51.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -15719,7 +15741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="14">
         <v>1</v>
       </c>
@@ -15729,7 +15751,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>2</v>
       </c>
@@ -15743,7 +15765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>3</v>
       </c>
@@ -15751,7 +15773,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="14">
         <v>4</v>
       </c>
@@ -15759,7 +15781,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
         <v>5</v>
       </c>
@@ -15767,7 +15789,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
         <v>6</v>
       </c>
@@ -15775,7 +15797,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="14">
         <v>7</v>
       </c>
@@ -15783,7 +15805,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
         <v>8</v>
       </c>
@@ -15795,4 +15817,1226 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F115B28-D430-4FDD-A03A-5A5EA4784D89}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>692</v>
+      </c>
+      <c r="D12" t="s">
+        <v>691</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D13" t="s">
+        <v>691</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>694</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>692</v>
+      </c>
+      <c r="D14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>692</v>
+      </c>
+      <c r="D15" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>692</v>
+      </c>
+      <c r="D16" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D17" t="s">
+        <v>691</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>692</v>
+      </c>
+      <c r="D18" t="s">
+        <v>691</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>694</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>692</v>
+      </c>
+      <c r="D19" t="s">
+        <v>691</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>694</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D20" t="s">
+        <v>691</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>694</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" t="s">
+        <v>691</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>694</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D22" t="s">
+        <v>691</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>694</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>692</v>
+      </c>
+      <c r="D23" t="s">
+        <v>691</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>694</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>692</v>
+      </c>
+      <c r="D24" t="s">
+        <v>691</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>694</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>692</v>
+      </c>
+      <c r="D25" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>694</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>692</v>
+      </c>
+      <c r="D26" t="s">
+        <v>691</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>694</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>692</v>
+      </c>
+      <c r="D27" t="s">
+        <v>691</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>694</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D28" t="s">
+        <v>691</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>692</v>
+      </c>
+      <c r="D29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>694</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>692</v>
+      </c>
+      <c r="D30" t="s">
+        <v>691</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>694</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" t="s">
+        <v>691</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>694</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>692</v>
+      </c>
+      <c r="D32" t="s">
+        <v>691</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>694</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>692</v>
+      </c>
+      <c r="D33" t="s">
+        <v>691</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>692</v>
+      </c>
+      <c r="D34" t="s">
+        <v>691</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>694</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>692</v>
+      </c>
+      <c r="D35" t="s">
+        <v>691</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>694</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>692</v>
+      </c>
+      <c r="D36" t="s">
+        <v>691</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>694</v>
+      </c>
+      <c r="B37">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>692</v>
+      </c>
+      <c r="D37" t="s">
+        <v>691</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>694</v>
+      </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>692</v>
+      </c>
+      <c r="D38" t="s">
+        <v>691</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>694</v>
+      </c>
+      <c r="B39">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>692</v>
+      </c>
+      <c r="D39" t="s">
+        <v>691</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>694</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>692</v>
+      </c>
+      <c r="D40" t="s">
+        <v>691</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>694</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>692</v>
+      </c>
+      <c r="D41" t="s">
+        <v>691</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>694</v>
+      </c>
+      <c r="B42">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>692</v>
+      </c>
+      <c r="D42" t="s">
+        <v>691</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>694</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>692</v>
+      </c>
+      <c r="D43" t="s">
+        <v>691</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>694</v>
+      </c>
+      <c r="B44">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>692</v>
+      </c>
+      <c r="D44" t="s">
+        <v>691</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>694</v>
+      </c>
+      <c r="B45">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>692</v>
+      </c>
+      <c r="D45" t="s">
+        <v>691</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>694</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>692</v>
+      </c>
+      <c r="D46" t="s">
+        <v>691</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>694</v>
+      </c>
+      <c r="B47">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>692</v>
+      </c>
+      <c r="D47" t="s">
+        <v>691</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>694</v>
+      </c>
+      <c r="B48">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>692</v>
+      </c>
+      <c r="D48" t="s">
+        <v>691</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>694</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>692</v>
+      </c>
+      <c r="D49" t="s">
+        <v>691</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>694</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>692</v>
+      </c>
+      <c r="D50" t="s">
+        <v>691</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>694</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D51" t="s">
+        <v>691</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>694</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>692</v>
+      </c>
+      <c r="D52" t="s">
+        <v>691</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>694</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>692</v>
+      </c>
+      <c r="D53" t="s">
+        <v>691</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>694</v>
+      </c>
+      <c r="B54">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>692</v>
+      </c>
+      <c r="D54" t="s">
+        <v>691</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>694</v>
+      </c>
+      <c r="B55">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>692</v>
+      </c>
+      <c r="D55" t="s">
+        <v>691</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>694</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>692</v>
+      </c>
+      <c r="D56" t="s">
+        <v>691</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>694</v>
+      </c>
+      <c r="B57">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>692</v>
+      </c>
+      <c r="D57" t="s">
+        <v>691</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>694</v>
+      </c>
+      <c r="B58">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>692</v>
+      </c>
+      <c r="D58" t="s">
+        <v>691</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>694</v>
+      </c>
+      <c r="B59">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>692</v>
+      </c>
+      <c r="D59" t="s">
+        <v>691</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>694</v>
+      </c>
+      <c r="B60">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>692</v>
+      </c>
+      <c r="D60" t="s">
+        <v>691</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>694</v>
+      </c>
+      <c r="B61">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>692</v>
+      </c>
+      <c r="D61" t="s">
+        <v>691</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>